--- a/data/hotels_by_city/Denver/Denver_shard_68.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_68.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33668-d120023-Reviews-Econo_Lodge_Thornton_Denver_North-Thornton_Colorado.html</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Econo-Lodge.h168379.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1044 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r587938106-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>120023</t>
+  </si>
+  <si>
+    <t>587938106</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Quite satisfied with my stay :)</t>
+  </si>
+  <si>
+    <t>I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo.
+The room had a smooth floor and not carpet, which I think is a good thing. It came with a larger-sized mini-fridge, which did hum on and off, but I use earplugs when I sleep so the hum didn't keep me awake. The air conditioner was a blessing in 90-degree+ weather, and worked great. No microwave oven, but I didn't need it, and if I did, I probably could have used the one I saw in the dining area. 
+I usually put the "Do Not Disturb" sign on the door during the day so as not to trouble the cleaning staff while I'm out. But I forgot to do it one day and I returned to a tidy room with the bed made and my used towels replaced with new ones. The shower door even looked like it was cleaned, wow! Thanks!
+I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had...I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo. The room had a smooth floor and not carpet, which I think is a good thing. It came with a larger-sized mini-fridge, which did hum on and off, but I use earplugs when I sleep so the hum didn't keep me awake. The air conditioner was a blessing in 90-degree+ weather, and worked great. No microwave oven, but I didn't need it, and if I did, I probably could have used the one I saw in the dining area. I usually put the "Do Not Disturb" sign on the door during the day so as not to trouble the cleaning staff while I'm out. But I forgot to do it one day and I returned to a tidy room with the bed made and my used towels replaced with new ones. The shower door even looked like it was cleaned, wow! Thanks!I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had been canceled for some reason. Oh well. First-world problems!Overall, I was thankful to have stayed in a nice room at a good price, and appreciative of the pleasant front desk staff with whom I interacted. I liked the location near the 25 freeway and great shopping and dining options along 120th Ave.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Cory M, Sr. V.P Of Operations  at Denver North Hotel, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo.
+The room had a smooth floor and not carpet, which I think is a good thing. It came with a larger-sized mini-fridge, which did hum on and off, but I use earplugs when I sleep so the hum didn't keep me awake. The air conditioner was a blessing in 90-degree+ weather, and worked great. No microwave oven, but I didn't need it, and if I did, I probably could have used the one I saw in the dining area. 
+I usually put the "Do Not Disturb" sign on the door during the day so as not to trouble the cleaning staff while I'm out. But I forgot to do it one day and I returned to a tidy room with the bed made and my used towels replaced with new ones. The shower door even looked like it was cleaned, wow! Thanks!
+I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had...I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo. The room had a smooth floor and not carpet, which I think is a good thing. It came with a larger-sized mini-fridge, which did hum on and off, but I use earplugs when I sleep so the hum didn't keep me awake. The air conditioner was a blessing in 90-degree+ weather, and worked great. No microwave oven, but I didn't need it, and if I did, I probably could have used the one I saw in the dining area. I usually put the "Do Not Disturb" sign on the door during the day so as not to trouble the cleaning staff while I'm out. But I forgot to do it one day and I returned to a tidy room with the bed made and my used towels replaced with new ones. The shower door even looked like it was cleaned, wow! Thanks!I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had been canceled for some reason. Oh well. First-world problems!Overall, I was thankful to have stayed in a nice room at a good price, and appreciative of the pleasant front desk staff with whom I interacted. I liked the location near the 25 freeway and great shopping and dining options along 120th Ave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r584603154-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>584603154</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>clean friendly</t>
+  </si>
+  <si>
+    <t>very clean very comfortable great location pleasant stay will stay here again   love to stay here friendly staff and very helpful  i dint know why i see bad review in this hotel will always stay here good placeMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>very clean very comfortable great location pleasant stay will stay here again   love to stay here friendly staff and very helpful  i dint know why i see bad review in this hotel will always stay here good placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r584214901-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>584214901</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Beware!</t>
+  </si>
+  <si>
+    <t>Charged twice won’t refund it! Won’t return calls. Disgusting room. Couldn’t even give us a door key. Place should be leveled. Possible hooker in the lobby. Could go on and on.Room had the smell of dirty dog. Feet stuck to the floor. No Breakfast as advertised. No coffee left. Terrible  customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Charged twice won’t refund it! Won’t return calls. Disgusting room. Couldn’t even give us a door key. Place should be leveled. Possible hooker in the lobby. Could go on and on.Room had the smell of dirty dog. Feet stuck to the floor. No Breakfast as advertised. No coffee left. Terrible  customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r509895808-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>509895808</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Dump</t>
+  </si>
+  <si>
+    <t>What a dump. I just don't understand how in the world places like this can still be in business. I only stayed here because it was the only place to stay that was cheap that was not costing an arm and a leg. But it still was charging $100 a night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r509852971-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>509852971</t>
+  </si>
+  <si>
+    <t>Man that hall smelled..</t>
+  </si>
+  <si>
+    <t>Literally, the hall smelled like semen. As for breakfast? The only thing they had was an english muffin (maybe) and some fruits. No bread, no eggs... this ain't no free breakfast. The room was ok... floor was kind of gross. The pillows are too high, the shower was the best part of the room. i can't believe I payed 70 bucks for this place. Maybe 40.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r508874448-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>508874448</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>WORST EVER</t>
+  </si>
+  <si>
+    <t>I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby...I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby to calm down. The bathroom was disgusting. Overflowing trash can, not toilet paper, no soap, it looked as it it hadn't been cleaned for days. When I returned, I apologized for losing my cool and tried to reinitiate conversation to coach this kid into problem solving a way to helping us out. He refused to talk to me and said that he'd called the police. I was beside myself. I hadn't threatened him, just raised my voice. When the police arrived we had already tried to locate another hotel and everywhere was sold out that we called. We did, however, confirm that had we had a reservation at one of the other Choice hotels, we would be able to check into our room when the system was updating. We resigned to wait it out and check in once the system came back up but the kid at the desk said to the police as they were leaving "well, I don't have to let them stay" with a smirk on his face. We left and eventually found a room for $300/night at another hotel. I have since attempted to contact a manager and have been unsuccessful. No one at the front desk is even able to provide an email address or some sort of schedule of when I can try to contact a manager. Because of the nature of my husband's job, we travel frequently and stay in hotels all over the US and Canada and this is easily the WORST experience we have ever had. Stay away. I am not one to normally complain or leave long, disparaging reviews. I have worked in customer service my entire work life, and still do but this was the absolute worst experience I've ever had. The hotel owner would be wise to replace ever single employee at this hotel, as basic customer service is a strange and foreign concept here. MoreShow less</t>
+  </si>
+  <si>
+    <t>I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby...I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby to calm down. The bathroom was disgusting. Overflowing trash can, not toilet paper, no soap, it looked as it it hadn't been cleaned for days. When I returned, I apologized for losing my cool and tried to reinitiate conversation to coach this kid into problem solving a way to helping us out. He refused to talk to me and said that he'd called the police. I was beside myself. I hadn't threatened him, just raised my voice. When the police arrived we had already tried to locate another hotel and everywhere was sold out that we called. We did, however, confirm that had we had a reservation at one of the other Choice hotels, we would be able to check into our room when the system was updating. We resigned to wait it out and check in once the system came back up but the kid at the desk said to the police as they were leaving "well, I don't have to let them stay" with a smirk on his face. We left and eventually found a room for $300/night at another hotel. I have since attempted to contact a manager and have been unsuccessful. No one at the front desk is even able to provide an email address or some sort of schedule of when I can try to contact a manager. Because of the nature of my husband's job, we travel frequently and stay in hotels all over the US and Canada and this is easily the WORST experience we have ever had. Stay away. I am not one to normally complain or leave long, disparaging reviews. I have worked in customer service my entire work life, and still do but this was the absolute worst experience I've ever had. The hotel owner would be wise to replace ever single employee at this hotel, as basic customer service is a strange and foreign concept here. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r503685562-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>503685562</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Totally a hassle</t>
+  </si>
+  <si>
+    <t>Location is pretty convenient, but that's about all. Room was moderately (but not completely) clean when I arrived and wasn't cleaned the entire time I stayed (1.5 weeks) in spite of asking while going to get towels every day (my job involves a lot of filth, so reusing towels really isn't an option). Breakfast was nearly always gone by the time I left everyday (7.45-8am), in spite of being open until 9am. Trying to get the staff to refill the breakfast stuff was rarely successful and always a hassle. Overall, not super impressed, especially given the rate.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r503635946-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>503635946</t>
+  </si>
+  <si>
+    <t>terrible breakfast</t>
+  </si>
+  <si>
+    <t>otherwise a normal motel, but the breakfast was awful.  Not a single protein on offer, and the bread and even the cereal was cheap and unappetizing.  But the worst single problem is that they had hot water and no tea to put in it, or cocoa, or anything to make with the water so if you're not a coffee drinker you're out of luck.  And this, we were assured by the desk clerk, was on purpose.  Choice Hotels customer service tells me that for "continental breakfast" they require coffee but not tea, so I'm out of luck.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r494427791-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>494427791</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't stay there! Awful! </t>
+  </si>
+  <si>
+    <t>We booked our room early that day, when we arrived checked us in went out got our luggage and went to room. Keys didn't work, and another guy came up behind us and went into our room. Went down to front desk, manager was working. Very inappropriate and gave us another room, right by elevator, horrible location, tv was old and didn't work. Manager lied and said that was the only room left and nothing else he could do and left. Next front desk person came on gave us a third room, tv worked but it was a smoking room, very dirty and stinky, had to sleep with window open and air on. Burns all over the carpet. No toilet paper in room. Spider in shower. Disgusting! Manager said there is nothing he can do and pretty much ignored our concerns. Nothing. No breakfast left at 8am which said breakfast until 9am. Ice machine did not work on 4th floor. THE WORST motel I have ever stayed in! DO NOT stay here! Management is very unprofessional and inexperienced.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>We booked our room early that day, when we arrived checked us in went out got our luggage and went to room. Keys didn't work, and another guy came up behind us and went into our room. Went down to front desk, manager was working. Very inappropriate and gave us another room, right by elevator, horrible location, tv was old and didn't work. Manager lied and said that was the only room left and nothing else he could do and left. Next front desk person came on gave us a third room, tv worked but it was a smoking room, very dirty and stinky, had to sleep with window open and air on. Burns all over the carpet. No toilet paper in room. Spider in shower. Disgusting! Manager said there is nothing he can do and pretty much ignored our concerns. Nothing. No breakfast left at 8am which said breakfast until 9am. Ice machine did not work on 4th floor. THE WORST motel I have ever stayed in! DO NOT stay here! Management is very unprofessional and inexperienced.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r488316043-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>488316043</t>
+  </si>
+  <si>
+    <t>05/27/2017</t>
+  </si>
+  <si>
+    <t>Don't even try to go there!!!</t>
+  </si>
+  <si>
+    <t>Made reservations 3 weeks in advance and had the place overbooked so no room after it was paid for in advance. The clerk found us a room after he ran around the whole hotel looking in each room. Then it was a single bed and we needed a double. Half the stud  (lights, toilet, etc. ) didn't work. Horrible horrible horrible!!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r480062497-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>480062497</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't come here! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We paid for a room and right when we got up there it smelled gross and was masked with an air freshener, it was dirty I didn't even want to sit on the bed. The elevator shook as we went up to our floor. Our kids wanted to swim and the pool didn't have water. Staff was rude we didn't feel welcomed it was very uncomfortable. We left about 5 minutes after being there and got a room at the ramada across the street. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r479567503-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>479567503</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Overcharging</t>
+  </si>
+  <si>
+    <t>Stay here if you like getting overcharged. I was charged for three night, which I stayed, and four days later charged again for an additional four nights at a cost of almost $250.  I immediately contacted the hotel and asked to speak to the manager.  He wasn't available. I was promised a call back from the GM, James. I have continued to try to call him for the past four days and he does not reply via phone nor e-mail, except one that I could not open due to a virus. I escalated to the corporate level after three days and the only response I received was that the overages were returned already and they had sent me an email detailing it.  I never received an email from corporate.  I have been a Choice member in good standing for over ten years. If this is not resolved, I will be done with this chain.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stay here if you like getting overcharged. I was charged for three night, which I stayed, and four days later charged again for an additional four nights at a cost of almost $250.  I immediately contacted the hotel and asked to speak to the manager.  He wasn't available. I was promised a call back from the GM, James. I have continued to try to call him for the past four days and he does not reply via phone nor e-mail, except one that I could not open due to a virus. I escalated to the corporate level after three days and the only response I received was that the overages were returned already and they had sent me an email detailing it.  I never received an email from corporate.  I have been a Choice member in good standing for over ten years. If this is not resolved, I will be done with this chain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r409180727-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>409180727</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>Stayed here because I had no other choice--everything else was booked  and I needed a place to sleep. Wish I had gone further out. $130 for a fleabag room with torn curtains and grungy carpets, stained bedding and NO amenities. I don't see how they stay in business. First and last time will ever stay at an Econo Lodge.Lesson learned: if this brand is the only thing available on my next road trip, I will sleep in the car--and I'll be more comfortable. Yuk.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r402889694-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>402889694</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Not a $100/ night hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hallways smell. Beds are old and in need of replacement. Pillows are SMALL like throw pillows on your sofa. Water pressure in shower is very low. Room carpets "look grungy and dirty". Drapes are hard to pull back and forth and look dirty. Windows are dirty. I would not stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r393057225-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>393057225</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Crap, Save your money</t>
+  </si>
+  <si>
+    <t>Rude staff, Manager is horrible and doesn't care about guest satisfaction. The room wasn't overly clean, food left in the fridge and the bed wasn't comfortable at all. Save the frustration and go to the Hampton Inn next door.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r369094349-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>369094349</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>STAY AWAYYYY!</t>
+  </si>
+  <si>
+    <t>This hotel is a piece of junk. I checked in went upstairs and to notice that the sheets were stained. I came back downstairs had to wait 10 minutes for the front desk clerk to check in a person for her to tell me I had to switch rooms. I went downstairs to the next room and one of the beds were missing a blanket. I honestly don't know why Choice is even considering this pile of junk one of their brands.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r355888635-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>355888635</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Emergency Stop</t>
+  </si>
+  <si>
+    <t>Car problems forced us into a two night stay in the Denver area.  This hotel happened to be nearby the repair shop and was reasonably inexpensive (which we wanted because we knew we were facing a big repair bill).  Normally, this probably would not have been our first choice, but we did not have the luxury of checking out all of our options.  We probably would have switched hotels for the second evening, but we did not want to face the hassle of relocating.  The hotel is rather plain and shows signs of wear and tear, but is mostly clean.  Noise was an issue for us as we could hear those next to us and those above us were especially noisy.  The complimentary breakfast in the morning is pretty basic.  I guess the bottom line is that it met our needs for two nights as needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Car problems forced us into a two night stay in the Denver area.  This hotel happened to be nearby the repair shop and was reasonably inexpensive (which we wanted because we knew we were facing a big repair bill).  Normally, this probably would not have been our first choice, but we did not have the luxury of checking out all of our options.  We probably would have switched hotels for the second evening, but we did not want to face the hassle of relocating.  The hotel is rather plain and shows signs of wear and tear, but is mostly clean.  Noise was an issue for us as we could hear those next to us and those above us were especially noisy.  The complimentary breakfast in the morning is pretty basic.  I guess the bottom line is that it met our needs for two nights as needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r316644078-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>316644078</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>clean, quiet and comfortable</t>
+  </si>
+  <si>
+    <t>housekeeping did a very good job over the course of my 5 day stay which i did not expect based on other reviews that i read complaining about the cleanliness.  I had no problems and found it to be clean, quiet and comfortable although it was overpriced at $95/night.  Not the most courteous desk staff during the day but the night staff was very nice and helpful.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r286846041-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>286846041</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Econo = junk at least this one </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bare bones hotel at best no cribs . bad elevator , the beds are junk exactly what you would expect for a 50 dollar hotel only its 130 (only in Colorado ) never again econo nada .... Oh and the pics are of the shelf by the ironing board above the desk screws out boarder line dangerous </t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r280477484-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>280477484</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>seriously lacking in property managment</t>
+  </si>
+  <si>
+    <t>My daughter and I had to stay here but wouldn't do it again. The pool had slimy walls and had smelly water. The walkway around the pool was slippery - it needed anti-skid surfacing since there was only regular tile around during the pool. The beds and pillows were lumpy. There was trash in  the bushes in front of the place, and the laundry room machines were frustrating me because half were broken, 4 dryers, 2 were out of order and one didn't dry the clothes like the other one did in the same amount of time. When I stay at a hotel I always make sure there is a complimentary breakfast. For the price i paid, which was more than the LA Quinta down the road which had an awesome breakfast bar, this breakfast bar was severely lacking. Countertops were messy from other guest waffle batter, the coffee was gone, and the utensils were almost all gone - who wants to eat waffles with a spoon? If the staff quit who was running the breakfast area, normally the manager would take up the slack...where was the staff and the manager? I do not recommend mend this hotel, go to the laquintaMoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter and I had to stay here but wouldn't do it again. The pool had slimy walls and had smelly water. The walkway around the pool was slippery - it needed anti-skid surfacing since there was only regular tile around during the pool. The beds and pillows were lumpy. There was trash in  the bushes in front of the place, and the laundry room machines were frustrating me because half were broken, 4 dryers, 2 were out of order and one didn't dry the clothes like the other one did in the same amount of time. When I stay at a hotel I always make sure there is a complimentary breakfast. For the price i paid, which was more than the LA Quinta down the road which had an awesome breakfast bar, this breakfast bar was severely lacking. Countertops were messy from other guest waffle batter, the coffee was gone, and the utensils were almost all gone - who wants to eat waffles with a spoon? If the staff quit who was running the breakfast area, normally the manager would take up the slack...where was the staff and the manager? I do not recommend mend this hotel, go to the laquintaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r278883934-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>278883934</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Definitely not pet-friendly</t>
+  </si>
+  <si>
+    <t>I was looking at their website where it clearly states that this econo lodge is a pet-friendly hotel but when my husband called to verify this information they said that they only have TWO pet-friendly rooms!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r244888453-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>244888453</t>
+  </si>
+  <si>
+    <t>12/17/2014</t>
+  </si>
+  <si>
+    <t>Closer to the steakhouse so I could drink adult beverage.</t>
+  </si>
+  <si>
+    <t>Shall we say disappointed in several ways, ask for the AAA discount, should have gotten a clue when the price was quoted an being a Diamond member, an since this is where my driver was staying so we could walk to the steakhouse to have big boy n girl beverage, (not gonna risk the DUI we all have CDL's) a single for $80 dollars plus tax. Very small for a single, older TV, the breakfast selection was well shall we say sucked, I am not spoiled by any means but when you stay in hotels over 300 nights a year because of your job, you pretty much know whom has what an they were lacking all the way around. Not a place I will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Maggie F, Front Office Manager at Denver North Hotel, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 19, 2014</t>
+  </si>
+  <si>
+    <t>Shall we say disappointed in several ways, ask for the AAA discount, should have gotten a clue when the price was quoted an being a Diamond member, an since this is where my driver was staying so we could walk to the steakhouse to have big boy n girl beverage, (not gonna risk the DUI we all have CDL's) a single for $80 dollars plus tax. Very small for a single, older TV, the breakfast selection was well shall we say sucked, I am not spoiled by any means but when you stay in hotels over 300 nights a year because of your job, you pretty much know whom has what an they were lacking all the way around. Not a place I will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r244762985-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>244762985</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>A Clean &amp; Pleasant Stay!</t>
+  </si>
+  <si>
+    <t>This Econo Lodge has been the best hotel I have stayed at in recent memory. I needed a nice, clean quiet place to stay at while I was in Denver working a big construction job. This place was great!! Fresh free coffee 24/7! Fresh breakfast every morning with a variety on the morning menu. Friendly and helpful staff ready to serve for a great weekly rate for me. I fell in love with their spa and pool room. Very clean and cool fully loaded workout room with weights! I work hard everyday all day so I HAVE TO HAVE a great bed to sleep in because of my back. The beds were like brand NEW! That's very important to me!! The rooms were very clean, new, comfortable and spacious. I had a great stay and will highly recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>Carrie L, Front Office Manager at Denver North Hotel, responded to this reviewResponded December 19, 2014</t>
+  </si>
+  <si>
+    <t>This Econo Lodge has been the best hotel I have stayed at in recent memory. I needed a nice, clean quiet place to stay at while I was in Denver working a big construction job. This place was great!! Fresh free coffee 24/7! Fresh breakfast every morning with a variety on the morning menu. Friendly and helpful staff ready to serve for a great weekly rate for me. I fell in love with their spa and pool room. Very clean and cool fully loaded workout room with weights! I work hard everyday all day so I HAVE TO HAVE a great bed to sleep in because of my back. The beds were like brand NEW! That's very important to me!! The rooms were very clean, new, comfortable and spacious. I had a great stay and will highly recommend this hotel to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r217472571-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>217472571</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Definately not worth the $100</t>
+  </si>
+  <si>
+    <t>We pulled into Denver about 1 A.M. tired and just looking for a place to sleep. We checked a couple of the hotels at 120th which had no vacancies.  We came across the Econo Lodge. It cost  $109.00 plus for a double room which is ridiculous! The room was awful, so dirty I was going to ask for our money back...the clerk made us sign a no refund policy.  Stains on the carpet, sheets were dirty and towels were old and very thin. There was a continental breakfast but not enough places to set so we just had coffee and left.  Do not stay in this Hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Maggie F, Front Office Manager at Denver North Hotel, responded to this reviewResponded July 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2014</t>
+  </si>
+  <si>
+    <t>We pulled into Denver about 1 A.M. tired and just looking for a place to sleep. We checked a couple of the hotels at 120th which had no vacancies.  We came across the Econo Lodge. It cost  $109.00 plus for a double room which is ridiculous! The room was awful, so dirty I was going to ask for our money back...the clerk made us sign a no refund policy.  Stains on the carpet, sheets were dirty and towels were old and very thin. There was a continental breakfast but not enough places to set so we just had coffee and left.  Do not stay in this Hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r182384625-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>182384625</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>an ok hotel but certain upgrades needed</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for a 1 night stopover through Denver.  It was ok.  It used to be a Sleep Inn and was just recently converted.  The room and hotel was in decent shape.  The only thing I'd say really needs an upgrade is the bathroom.  The counters and faucets are quite dated and dingy.  I am sure they will be updating these shortly.  The other thing is the toilet paper provided is about the worst quality I've ever used.  They have gone super cheap here and it's actually enough of a factor where I would avoid the hotel again because of it.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r178887128-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>178887128</t>
+  </si>
+  <si>
+    <t>09/27/2013</t>
+  </si>
+  <si>
+    <t>Should have known better.....</t>
+  </si>
+  <si>
+    <t>Generally very old....needs desperate updates. Front desk staff has no personality....soda machine broken on the floor. Room furniture had cigarette burns all over it...the sink was pitted and very stained. The TV was an old box model from the 80s.. Towel rod broken in half and only being held together by a string! No washcloths. Had to pass and share the soap between the shower and the sink. Strange lobby furnishings....coffee pot empty in the lobby. Everything still says Sleep Inn on it. There was an iron...but no ironing board. It is convenient to the highway which is a plus. Luckily we were just here to sleep for two nights before our next adventure.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Generally very old....needs desperate updates. Front desk staff has no personality....soda machine broken on the floor. Room furniture had cigarette burns all over it...the sink was pitted and very stained. The TV was an old box model from the 80s.. Towel rod broken in half and only being held together by a string! No washcloths. Had to pass and share the soap between the shower and the sink. Strange lobby furnishings....coffee pot empty in the lobby. Everything still says Sleep Inn on it. There was an iron...but no ironing board. It is convenient to the highway which is a plus. Luckily we were just here to sleep for two nights before our next adventure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r176240717-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>176240717</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>worst hotel that I have stayed at</t>
+  </si>
+  <si>
+    <t>First i would like to say that I might need to go to the hospital and get a few shots after staying here... The room that they put us in was in the basement and the ac did not work. i have to enplane to the staff what was going on with the ac set to cold air and hot air coming out....second i went to get something from the vending machine..... both were out of order.....When i wanted to take my two kids to the pool that was a bad idea.... there was a turd on the bottom of the pool.... i have the pictures to prove it. they tried to clean the pool with about 5 of the chlorine tablets.......the hot tub was not working at all....After speaking to the front desk they moved me to the 3rd floor.... not much better other than I could take my shoes off and not feel dirty on the floor....Doors slamming all night long.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>First i would like to say that I might need to go to the hospital and get a few shots after staying here... The room that they put us in was in the basement and the ac did not work. i have to enplane to the staff what was going on with the ac set to cold air and hot air coming out....second i went to get something from the vending machine..... both were out of order.....When i wanted to take my two kids to the pool that was a bad idea.... there was a turd on the bottom of the pool.... i have the pictures to prove it. they tried to clean the pool with about 5 of the chlorine tablets.......the hot tub was not working at all....After speaking to the front desk they moved me to the 3rd floor.... not much better other than I could take my shoes off and not feel dirty on the floor....Doors slamming all night long.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r153973440-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>153973440</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>hard to believe, but true</t>
+  </si>
+  <si>
+    <t>Stayed one night on 3/5/2013.  The room was cold and the heating unit did not work.  Asked to have it looked at at 4:15p.m.  We left for dinner at 6, with no news.  When we got back, there was a portable heater waiting to greet us.  That wasn't the only thing not working, the TV didn't either, it was all snowy with distorted sound.  OK, my wife and I are readers anyway.  The next morning I asked my wife if we had two wash clothes.  No only one she replied.  But, as she sat on her bed she noticed a wash cloth under my bed.  It was used by some previous guest and thrown under the bed.  I could see crusted yellow something on it.  I wanted to fill out a remark card at the check-out desk, but couldn't find any (wonder why).  There was no clerk there and I didn't want to spend another minute there.  Oh, the room next to us had a yappy dog that we could hear through the very thin walls.  Also, my wife went down to the hospitality room a little after 6 a.m., but no coffee was made yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed one night on 3/5/2013.  The room was cold and the heating unit did not work.  Asked to have it looked at at 4:15p.m.  We left for dinner at 6, with no news.  When we got back, there was a portable heater waiting to greet us.  That wasn't the only thing not working, the TV didn't either, it was all snowy with distorted sound.  OK, my wife and I are readers anyway.  The next morning I asked my wife if we had two wash clothes.  No only one she replied.  But, as she sat on her bed she noticed a wash cloth under my bed.  It was used by some previous guest and thrown under the bed.  I could see crusted yellow something on it.  I wanted to fill out a remark card at the check-out desk, but couldn't find any (wonder why).  There was no clerk there and I didn't want to spend another minute there.  Oh, the room next to us had a yappy dog that we could hear through the very thin walls.  Also, my wife went down to the hospitality room a little after 6 a.m., but no coffee was made yet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r152989736-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>152989736</t>
+  </si>
+  <si>
+    <t>02/24/2013</t>
+  </si>
+  <si>
+    <t>Acceptable Accommodations</t>
+  </si>
+  <si>
+    <t>We had to go to Colorado for a funeral and this Sleep Inn was really close to relatives. The gentleman who checked us in was very friendly and helpful. The rooms are small. The bathrooms are super small. It was clean, but there was an odd smell in our room after the cleaning folks made their rounds.  We heard a lot of noise coming from up above us (we were on the third floor). The bed wasn't overly comfortable, but it wasn't horrible. If you sleep in (no pun intended) you will not get breakfast as the other guests had devoured it by 8:00 AM. Either the other guests are very voracious or they don't prepare enough food. Overall it wasn't the worst travel experience I have had. I  will never stay here again as I noticed quite a few other hotels on either side of the Sleep Inn that didn't show up on travel websites and I will give them a shot next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>We had to go to Colorado for a funeral and this Sleep Inn was really close to relatives. The gentleman who checked us in was very friendly and helpful. The rooms are small. The bathrooms are super small. It was clean, but there was an odd smell in our room after the cleaning folks made their rounds.  We heard a lot of noise coming from up above us (we were on the third floor). The bed wasn't overly comfortable, but it wasn't horrible. If you sleep in (no pun intended) you will not get breakfast as the other guests had devoured it by 8:00 AM. Either the other guests are very voracious or they don't prepare enough food. Overall it wasn't the worst travel experience I have had. I  will never stay here again as I noticed quite a few other hotels on either side of the Sleep Inn that didn't show up on travel websites and I will give them a shot next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r145326689-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>145326689</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>excellent stay!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>Our experience here was wonderful! The front desk staff was very helpful and accomidating. The room was very clean and the breakfast was good. Tara at the front desk went out of her way to find me a breakfast item I could eat as I am on a carb free diet and allergic to eggs. All in all I would reccomend this hotel to anyone!!!!!!!</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r137274104-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>137274104</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>discusting-stay elsewhere</t>
+  </si>
+  <si>
+    <t>from the pool, to the tub of butter everyone has to share at breakfast, this hotel is discusting, smelly, and doesnt have a polite staff, choice needs to remove this hotel from their chain, this hotel makes choice look horrible, Tk is rude and doesnt care about his quests and their comfortability what so ever.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r135624576-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>135624576</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>We reserved a room with a guaranteed king bed.  When we got to the hotel, a large bus tour was checking in ahead of us.  We waited in line for almost an hour since the hotel not only wasn't prepared for the group, but they were assigning rooms that were already occupied.  When we finally checked in, we got to our room, which only had a queen sized bed.  After returning to the front desk, we were told that there were no rooms available despite our email confirmation GUARANTEEING the king sized bed.  We then tried to cancel, but the man at the front desk was extremely rude, citing Choice Hotel's cancellation property.  He gave us a receipt that  said we owed nothing but refused to sign it stating that it we would not owe anything.  We ended up walking next door to a Hamptons Hotel, which was much nicer.  Turned out the man helping us at the Sleep Inn was the owner.  Do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>We reserved a room with a guaranteed king bed.  When we got to the hotel, a large bus tour was checking in ahead of us.  We waited in line for almost an hour since the hotel not only wasn't prepared for the group, but they were assigning rooms that were already occupied.  When we finally checked in, we got to our room, which only had a queen sized bed.  After returning to the front desk, we were told that there were no rooms available despite our email confirmation GUARANTEEING the king sized bed.  We then tried to cancel, but the man at the front desk was extremely rude, citing Choice Hotel's cancellation property.  He gave us a receipt that  said we owed nothing but refused to sign it stating that it we would not owe anything.  We ended up walking next door to a Hamptons Hotel, which was much nicer.  Turned out the man helping us at the Sleep Inn was the owner.  Do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r134040526-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>134040526</t>
+  </si>
+  <si>
+    <t>07/10/2012</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I just wanted to say that I had  a wonderful stay at the Sleep INN Denver north.  The staff were excellent they were very frendly and helpful I stayed at this hotel for 4 nights with my friends Linda was a great help when I asked for directions I needed to know how to get go a good mexican food and Linda was great for giving me directions to the mexican resturant.  The housekeeping staff were great the Room were extreemly clean they were way above my expections The breakfast was excellent they had a veriety of everything the waffles were great this hotel is well kept and I will for sure return to this property co103 was great see you in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just wanted to say that I had  a wonderful stay at the Sleep INN Denver north.  The staff were excellent they were very frendly and helpful I stayed at this hotel for 4 nights with my friends Linda was a great help when I asked for directions I needed to know how to get go a good mexican food and Linda was great for giving me directions to the mexican resturant.  The housekeeping staff were great the Room were extreemly clean they were way above my expections The breakfast was excellent they had a veriety of everything the waffles were great this hotel is well kept and I will for sure return to this property co103 was great see you in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r133590479-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>133590479</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Go Somewhere Else</t>
+  </si>
+  <si>
+    <t>I called this hotel to book a room with two QUEEN beds.  They said it was available and I booked the room.  When I checked in I confirmed that the room had two QUEEN beds.  She confirmed that it did.  When we got to the room, it had two DOUBLE beds.  Apparently the staff at this hotel does not know the difference between a queen bed and a double bed.  The AC would not go below about 76 and it was way too hot in this room to sleep.  Called the front desk about 10:30 to have someone look at the AC and no one ever showed up.  Rundown and not very well staffed.  We usually like the Choice Hotel chain hotels but stay away from this one!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I called this hotel to book a room with two QUEEN beds.  They said it was available and I booked the room.  When I checked in I confirmed that the room had two QUEEN beds.  She confirmed that it did.  When we got to the room, it had two DOUBLE beds.  Apparently the staff at this hotel does not know the difference between a queen bed and a double bed.  The AC would not go below about 76 and it was way too hot in this room to sleep.  Called the front desk about 10:30 to have someone look at the AC and no one ever showed up.  Rundown and not very well staffed.  We usually like the Choice Hotel chain hotels but stay away from this one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r133560333-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>133560333</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>NIGHTMARE!!!!  Wish there was a zero rating to give them!</t>
+  </si>
+  <si>
+    <t>The rooms were terrible!  The carpet was extremely dirty, the door knobs were broke, the room had a smell that we were not sure what it was, the sheets were stained along with the mattress, there was hair in the bed and the bathrooms were gross.  The staff was worse then the room, if that is possible.  They insisted there was nothing wrong with the rooms.  The only problem is that they were telling us and about 15 other people the same thing!  So we had to take them to the rooms and show them and they basically told us take or leave and refused a refund when they had 6 people in the lobby who thought they had rooms only to find out upon arrival that they had been. cancelled.  We ended leaving and going else where to stay.  Would not recommend this hotel to anyone!MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were terrible!  The carpet was extremely dirty, the door knobs were broke, the room had a smell that we were not sure what it was, the sheets were stained along with the mattress, there was hair in the bed and the bathrooms were gross.  The staff was worse then the room, if that is possible.  They insisted there was nothing wrong with the rooms.  The only problem is that they were telling us and about 15 other people the same thing!  So we had to take them to the rooms and show them and they basically told us take or leave and refused a refund when they had 6 people in the lobby who thought they had rooms only to find out upon arrival that they had been. cancelled.  We ended leaving and going else where to stay.  Would not recommend this hotel to anyone!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r133063854-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>133063854</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Run down</t>
+  </si>
+  <si>
+    <t>The hotel looks nice on the outside but the rooms are small, the tv's are old and the room is very outdated. Not a place I would recommend. I'm wondering if they got a discount for buying old beat up furniture, sort of reminded me of a college dorm room. The remote for the tv was crusted over with what looked like bbq sauce..just gross.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r127342071-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127342071</t>
+  </si>
+  <si>
+    <t>04/05/2012</t>
+  </si>
+  <si>
+    <t>no bed bugs here! Just a nice stay!</t>
+  </si>
+  <si>
+    <t>I didnt encounter any bed bugs, thank god...but i was greeted by the most friendly staff, they really went out of their way to help me, my room was very clean, smelled very clean. I had a wonderful stay, very comfortable bed, and a nice breakfast. Ill be back!</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r124368400-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>124368400</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Rating = 0  (too bad that wasn't an option) DON'T GO!</t>
+  </si>
+  <si>
+    <t>Our experience here mirrors many of the other reviews, without the bed bugs (thankfully)! The front desk person was completely unhelpful - gave us no information at checkout other than our room key and directions to our room.  We went to check out the pool and hot tub (since that's why we stayed there), only to find people in the hot tub saying don't bother -- it's lukewarm and the jets don't work.  The bathroom door (sliding door) didn't latch.  The blankets looked about 25 years old.  The bathroom faucet was corroded.  There were random paint patches on the doors. The people above us were extremely noisy. Breakfast was minimal - no fruit - a couple of trays of coffee cake from the local supermarket with a community margarine tub (can you say health department violation?).  The to-go coffee cup lids didn't fit the to-go coffee cups (that's not very helpful then, is it?).  And the clincher is that WE WERE CHARGED FOR TWO NIGHTS INSTEAD OF ONE.  We were never told when checkout time was and when we disputed it, the response from the manager was that he knocked on our door 3 times to alert us about checkout.  Funny that 4 people in one room never heard the knocks on the door, and that we had recently come in and no one had asked us when we were checking out. I first tried to call the hotel to...Our experience here mirrors many of the other reviews, without the bed bugs (thankfully)! The front desk person was completely unhelpful - gave us no information at checkout other than our room key and directions to our room.  We went to check out the pool and hot tub (since that's why we stayed there), only to find people in the hot tub saying don't bother -- it's lukewarm and the jets don't work.  The bathroom door (sliding door) didn't latch.  The blankets looked about 25 years old.  The bathroom faucet was corroded.  There were random paint patches on the doors. The people above us were extremely noisy. Breakfast was minimal - no fruit - a couple of trays of coffee cake from the local supermarket with a community margarine tub (can you say health department violation?).  The to-go coffee cup lids didn't fit the to-go coffee cups (that's not very helpful then, is it?).  And the clincher is that WE WERE CHARGED FOR TWO NIGHTS INSTEAD OF ONE.  We were never told when checkout time was and when we disputed it, the response from the manager was that he knocked on our door 3 times to alert us about checkout.  Funny that 4 people in one room never heard the knocks on the door, and that we had recently come in and no one had asked us when we were checking out. I first tried to call the hotel to discuss it on the phone, but NO ONE ANSWERED! So, I disputed this through the Choice Hotels customer relations who said that since the hotel was independently owned, they couldn't do anything about the money issue. DON'T STAY HERE - EVER!!  I suggested to Choice Hotels customer relations that they need to cut this hotel from their group.  Or I need to cut Choice Hotels from places I would ever stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Our experience here mirrors many of the other reviews, without the bed bugs (thankfully)! The front desk person was completely unhelpful - gave us no information at checkout other than our room key and directions to our room.  We went to check out the pool and hot tub (since that's why we stayed there), only to find people in the hot tub saying don't bother -- it's lukewarm and the jets don't work.  The bathroom door (sliding door) didn't latch.  The blankets looked about 25 years old.  The bathroom faucet was corroded.  There were random paint patches on the doors. The people above us were extremely noisy. Breakfast was minimal - no fruit - a couple of trays of coffee cake from the local supermarket with a community margarine tub (can you say health department violation?).  The to-go coffee cup lids didn't fit the to-go coffee cups (that's not very helpful then, is it?).  And the clincher is that WE WERE CHARGED FOR TWO NIGHTS INSTEAD OF ONE.  We were never told when checkout time was and when we disputed it, the response from the manager was that he knocked on our door 3 times to alert us about checkout.  Funny that 4 people in one room never heard the knocks on the door, and that we had recently come in and no one had asked us when we were checking out. I first tried to call the hotel to...Our experience here mirrors many of the other reviews, without the bed bugs (thankfully)! The front desk person was completely unhelpful - gave us no information at checkout other than our room key and directions to our room.  We went to check out the pool and hot tub (since that's why we stayed there), only to find people in the hot tub saying don't bother -- it's lukewarm and the jets don't work.  The bathroom door (sliding door) didn't latch.  The blankets looked about 25 years old.  The bathroom faucet was corroded.  There were random paint patches on the doors. The people above us were extremely noisy. Breakfast was minimal - no fruit - a couple of trays of coffee cake from the local supermarket with a community margarine tub (can you say health department violation?).  The to-go coffee cup lids didn't fit the to-go coffee cups (that's not very helpful then, is it?).  And the clincher is that WE WERE CHARGED FOR TWO NIGHTS INSTEAD OF ONE.  We were never told when checkout time was and when we disputed it, the response from the manager was that he knocked on our door 3 times to alert us about checkout.  Funny that 4 people in one room never heard the knocks on the door, and that we had recently come in and no one had asked us when we were checking out. I first tried to call the hotel to discuss it on the phone, but NO ONE ANSWERED! So, I disputed this through the Choice Hotels customer relations who said that since the hotel was independently owned, they couldn't do anything about the money issue. DON'T STAY HERE - EVER!!  I suggested to Choice Hotels customer relations that they need to cut this hotel from their group.  Or I need to cut Choice Hotels from places I would ever stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r121293591-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121293591</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>Bed Bugs!!!!!!</t>
+  </si>
+  <si>
+    <t>Stay far away from this place.  I was bitten horrendously by a bed bug infestation.  When I called the hotel to explain, no one ever returned my call.  When I called customer service I got an ID # and no one ever called me back as promised.  When I called to find out the status, they told me a letter was mailed to me and they would have to call a general manager to reveal the contents of said letter.  Needless to say, no letter was ever received on my end.  Worst travel experience of my life.  Definitely NOT worth the few pennies you will save.  Cleanliness......F!  Customer Service............F!   Run-around.................A+!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Stay far away from this place.  I was bitten horrendously by a bed bug infestation.  When I called the hotel to explain, no one ever returned my call.  When I called customer service I got an ID # and no one ever called me back as promised.  When I called to find out the status, they told me a letter was mailed to me and they would have to call a general manager to reveal the contents of said letter.  Needless to say, no letter was ever received on my end.  Worst travel experience of my life.  Definitely NOT worth the few pennies you will save.  Cleanliness......F!  Customer Service............F!   Run-around.................A+!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r118507984-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>118507984</t>
+  </si>
+  <si>
+    <t>09/23/2011</t>
+  </si>
+  <si>
+    <t>getting worse</t>
+  </si>
+  <si>
+    <t>Have stayed for business purposes 3 times. Last time was not nice. Hotel is outdated, staff not friendly, Lobby very small, not taken care of, breakfast room small and not inviting. 11 miles from downtown. Not going to stay there anymore.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r116529117-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116529117</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Bed Bugs!!!!!!!!</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE, unless you want them.  My friend's daughter and I were mauled by bed bugs.  I had too many bites to count and she had a horrible reaction to hers.  I woke up with smears of blood on the sheets (classic sign).    I was in room #307.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r116107956-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116107956</t>
+  </si>
+  <si>
+    <t>08/01/2011</t>
+  </si>
+  <si>
+    <t>Very Disappointing</t>
+  </si>
+  <si>
+    <t>The a/c didn't work &amp; we had to sleep w/ the window open all night w/ a fan going. Very noisy. It was difficult to get assistance. The general appearance of the hotel was run-down. We were looking forward to using the pool, but it was an unhealthy looking green. Overall, just an unpleasant experience. Never going back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r115468064-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115468064</t>
+  </si>
+  <si>
+    <t>07/17/2011</t>
+  </si>
+  <si>
+    <t>The owner and his sone were RUDE and CHEAP!!!</t>
+  </si>
+  <si>
+    <t>I checked into the hotel and  everything was O.K. the first night.  I Ieft the hotel the next day intending to give the maid time to clean my room.  I informed the front desk I was leaving and the maid could clean the room.  I came back back 3 1/2 hours later.  When I got back my room key would not work, the owners son swiped the wrong room # on the replacement key, but luckily the front desk clerk caught it before I went back up to the 4th floor.The owners son thought it was a joke and was laughing.  When I got to the room, it had not been cleaned, but worse of all the air conditioning was not working in my room and the rest of the hotel was very warm also because either the air worked very little or the owner was trying to save money.  I say this because they offer a very very small continental breakfast offering and a community margarine bowl.  Loke all the guest are one big family.  It's onthind seeing toast crumbs of my family, but I do not fine it appetizing pushing my knife into a bowl to get margarine with "mysterious" peoples bread crumbs in it. (keep in mind I stay in hotels on business 340 days a year).  It was 98 degrees that day outside.  Needless to say my room was an oven.  Probably 105-110 degrees or more...I checked into the hotel and  everything was O.K. the first night.  I Ieft the hotel the next day intending to give the maid time to clean my room.  I informed the front desk I was leaving and the maid could clean the room.  I came back back 3 1/2 hours later.  When I got back my room key would not work, the owners son swiped the wrong room # on the replacement key, but luckily the front desk clerk caught it before I went back up to the 4th floor.The owners son thought it was a joke and was laughing.  When I got to the room, it had not been cleaned, but worse of all the air conditioning was not working in my room and the rest of the hotel was very warm also because either the air worked very little or the owner was trying to save money.  I say this because they offer a very very small continental breakfast offering and a community margarine bowl.  Loke all the guest are one big family.  It's onthind seeing toast crumbs of my family, but I do not fine it appetizing pushing my knife into a bowl to get margarine with "mysterious" peoples bread crumbs in it. (keep in mind I stay in hotels on business 340 days a year).  It was 98 degrees that day outside.  Needless to say my room was an oven.  Probably 105-110 degrees or more I would guestimate.  The owner told me to wait and he would send someone up to fix the air conditioner.  Fifteen minutes later I went downstairs and voiced my complaint.  The owners son thought it was humorous, however I did not.  Whereupon the owner got involved and I asked if I could switch rooms.  He told me that no rooms were cleaned yet.  Yet this was at 2:30 in the afternoon ?  (checkout at the hotel 11 a.m.) And the made was knocking at doors at my level at 8:30 a.m. to see which guests had left so she could clean their rooms. I asked the owner that since the room had not been cleaned and I had been out of the room since 11 am  if I could get  a refund and not stay a second night.  The owner said I could not and if I chose to leave he would not refund my money.  He told me at one point to go back up to my room and wait for the guy to fix the air conditioner.  I said, "what?  Are you ordering me to my room?  He aid yes, you just go!"  I am a fifty year old woman and could not belleive this guy was ordering me to my HOT room like I was a 6 year old.  I told him I would go  out for an hour and that whould give them enough time to fix the issues. Again the owners son smirked like the spoiled rotten child he was (he was 16 years old at best) I went over to the RAMADA across the street to kill the time and enjoyed their cool air conditioned lobby.  I spent (3) 20 minute phone calls and talked to two custoner service people and 1 supervisor only to be told by the people at the corporate 800# that the only thing I could gdo was I could file a complaint only after I checked out of the hotel and no one would give me a refund and once I filed the complaint at corporate, it would be sent on to the owner for a response.  And\, "He would decide what to do about the situation.  WHY i ASKED HER SHOULD i EVEN CALL BACK AFTER i CHECKED OUT TO EVEN FILE A COMPLAINT IF IT WAS ONLY GOING TO GO IN A LOOP?  No wonder the owner did not care, and ordered me to my room like I was in some 3rd world country. I was a paying guest and only expected the basics.  Nothing fancy, just a reasonable request.  I DECIDED TO CHECK INTO THE RAMADA.  I will be staying in the area every weekend in the future due to business, but it will never be at the Sleep Inn.  I went back to the sleep in and checked out and I paid foe two htel rooms only to sleep in one!!!  I told the owner to take my $ and what he could do with it on my way out.  I hope by typing this review, it will hurt his revenue in the future.  He may get my $ for one night , but he will probably lose more of his in the future.   I truly call this experience to put in old school terms a TOTAL RIP OFF.  I hope he spendsmy 80 bucks on a great Dinner for himself and chokes on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked into the hotel and  everything was O.K. the first night.  I Ieft the hotel the next day intending to give the maid time to clean my room.  I informed the front desk I was leaving and the maid could clean the room.  I came back back 3 1/2 hours later.  When I got back my room key would not work, the owners son swiped the wrong room # on the replacement key, but luckily the front desk clerk caught it before I went back up to the 4th floor.The owners son thought it was a joke and was laughing.  When I got to the room, it had not been cleaned, but worse of all the air conditioning was not working in my room and the rest of the hotel was very warm also because either the air worked very little or the owner was trying to save money.  I say this because they offer a very very small continental breakfast offering and a community margarine bowl.  Loke all the guest are one big family.  It's onthind seeing toast crumbs of my family, but I do not fine it appetizing pushing my knife into a bowl to get margarine with "mysterious" peoples bread crumbs in it. (keep in mind I stay in hotels on business 340 days a year).  It was 98 degrees that day outside.  Needless to say my room was an oven.  Probably 105-110 degrees or more...I checked into the hotel and  everything was O.K. the first night.  I Ieft the hotel the next day intending to give the maid time to clean my room.  I informed the front desk I was leaving and the maid could clean the room.  I came back back 3 1/2 hours later.  When I got back my room key would not work, the owners son swiped the wrong room # on the replacement key, but luckily the front desk clerk caught it before I went back up to the 4th floor.The owners son thought it was a joke and was laughing.  When I got to the room, it had not been cleaned, but worse of all the air conditioning was not working in my room and the rest of the hotel was very warm also because either the air worked very little or the owner was trying to save money.  I say this because they offer a very very small continental breakfast offering and a community margarine bowl.  Loke all the guest are one big family.  It's onthind seeing toast crumbs of my family, but I do not fine it appetizing pushing my knife into a bowl to get margarine with "mysterious" peoples bread crumbs in it. (keep in mind I stay in hotels on business 340 days a year).  It was 98 degrees that day outside.  Needless to say my room was an oven.  Probably 105-110 degrees or more I would guestimate.  The owner told me to wait and he would send someone up to fix the air conditioner.  Fifteen minutes later I went downstairs and voiced my complaint.  The owners son thought it was humorous, however I did not.  Whereupon the owner got involved and I asked if I could switch rooms.  He told me that no rooms were cleaned yet.  Yet this was at 2:30 in the afternoon ?  (checkout at the hotel 11 a.m.) And the made was knocking at doors at my level at 8:30 a.m. to see which guests had left so she could clean their rooms. I asked the owner that since the room had not been cleaned and I had been out of the room since 11 am  if I could get  a refund and not stay a second night.  The owner said I could not and if I chose to leave he would not refund my money.  He told me at one point to go back up to my room and wait for the guy to fix the air conditioner.  I said, "what?  Are you ordering me to my room?  He aid yes, you just go!"  I am a fifty year old woman and could not belleive this guy was ordering me to my HOT room like I was a 6 year old.  I told him I would go  out for an hour and that whould give them enough time to fix the issues. Again the owners son smirked like the spoiled rotten child he was (he was 16 years old at best) I went over to the RAMADA across the street to kill the time and enjoyed their cool air conditioned lobby.  I spent (3) 20 minute phone calls and talked to two custoner service people and 1 supervisor only to be told by the people at the corporate 800# that the only thing I could gdo was I could file a complaint only after I checked out of the hotel and no one would give me a refund and once I filed the complaint at corporate, it would be sent on to the owner for a response.  And\, "He would decide what to do about the situation.  WHY i ASKED HER SHOULD i EVEN CALL BACK AFTER i CHECKED OUT TO EVEN FILE A COMPLAINT IF IT WAS ONLY GOING TO GO IN A LOOP?  No wonder the owner did not care, and ordered me to my room like I was in some 3rd world country. I was a paying guest and only expected the basics.  Nothing fancy, just a reasonable request.  I DECIDED TO CHECK INTO THE RAMADA.  I will be staying in the area every weekend in the future due to business, but it will never be at the Sleep Inn.  I went back to the sleep in and checked out and I paid foe two htel rooms only to sleep in one!!!  I told the owner to take my $ and what he could do with it on my way out.  I hope by typing this review, it will hurt his revenue in the future.  He may get my $ for one night , but he will probably lose more of his in the future.   I truly call this experience to put in old school terms a TOTAL RIP OFF.  I hope he spendsmy 80 bucks on a great Dinner for himself and chokes on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r114947939-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>114947939</t>
+  </si>
+  <si>
+    <t>07/01/2011</t>
+  </si>
+  <si>
+    <t>Great location - penny pinching operators-hard working staff</t>
+  </si>
+  <si>
+    <t>Question: how do you drive a new BMW? Buy a Sleep inn and run it into the ground. This place is full because of choice hotels.(.) Choice needs to rough up cheap bums such as these clowns. Staff is busting butt while gym equipment is busted and gym hot as hell. room carpet was dirty -spread had a burn hole in our NS room. For seeing Denver area you cant beat this location.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r114776828-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>114776828</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>We paid $78 for one night here and it was not worth the money. The staff were not particularly friendly or helpful. We had to switch rooms because the AC was not working. Our second room was fairly clean, but small and a bit "tired". The breakfast area is tiny and the selection very limited. The location is good for restaurants and stores just a short walk away. There are lots of hotels in the area, so I'd recommened staying somewhere else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r109970745-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>109970745</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>the best customer service!!</t>
+  </si>
+  <si>
+    <t>Had to stay  in hotel while semi truck was in the shop. Stayed for 5 days. This is not the fanciest hotel but its nice and clean and they are in process of remodeling. Big rooms and lots of restaurants and grocery stores near by.The thing we were impressed with was the staff. Everyone was so nice and even though busy still stopped to chat with you. Anytime there was any problem they were quick to fix it and with a smile. every shift was like this! Very enjoyable stay. I would defiantly stay here again!!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r105100043-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>105100043</t>
+  </si>
+  <si>
+    <t>04/22/2011</t>
+  </si>
+  <si>
+    <t>WARNING!!!! HORRIBLE EXPERIENCE!! DO NOT STAY HERE!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>first of all when we arrived to check in the front desk clerk was no where to be found!! we had to ring a bell several times.. when she finally arrived she was very rude!!!even though my card was already on file she asked for it again swiped it and told me it was declined.. no was possibe.. i asked her to run it again and it went thru.. faulty card reader maybe?!!?!! when we got up to our room you could tell they hadnt temperature controlled the room.. i found a hair in the sink!!! no extra toiletries in the bathroom!!! the carpet was worn and rolled up and you could tell maintenance hadnt kept the room up...this is unacceptable!!!! we went out to dinner that night and upon our return our keys didnt work.. when we went down to the front desk to have them re-keyed the fd clerk was once againg very rude and seem that she was bothered by having to do her job!!! but the worst was yet to come!! THIS HOTEL IS INFESTED WITH BED BUGS!!! when i mentioned this to a houskeeper the next morning she told me that the owner was aware of this and refused to do anything about it!!! i was forced to speak to the front desk manager about this b/c the general manager was unavailable!!!! she told me she didnt know anything about the situation.. how is that...first of all when we arrived to check in the front desk clerk was no where to be found!! we had to ring a bell several times.. when she finally arrived she was very rude!!!even though my card was already on file she asked for it again swiped it and told me it was declined.. no was possibe.. i asked her to run it again and it went thru.. faulty card reader maybe?!!?!! when we got up to our room you could tell they hadnt temperature controlled the room.. i found a hair in the sink!!! no extra toiletries in the bathroom!!! the carpet was worn and rolled up and you could tell maintenance hadnt kept the room up...this is unacceptable!!!! we went out to dinner that night and upon our return our keys didnt work.. when we went down to the front desk to have them re-keyed the fd clerk was once againg very rude and seem that she was bothered by having to do her job!!! but the worst was yet to come!! THIS HOTEL IS INFESTED WITH BED BUGS!!! when i mentioned this to a houskeeper the next morning she told me that the owner was aware of this and refused to do anything about it!!! i was forced to speak to the front desk manager about this b/c the general manager was unavailable!!!! she told me she didnt know anything about the situation.. how is that when all of houskeeping was!!! after speaking to her about it i was only partially reimbursed!!!!!! i am shocked!!! how could an owner of any establishment knowingly not do anything!!! never again will my husband and i stay at this hotel!!! i had to got to a doctor to get medication for my bites!! which i had all over my body!!! i had to have my clothes washed before returning home!! and my vehicle detail for fear they would hitch hike home with me!!!! horrible experience!!! one thing i noticed was a diamond plaque on their wall!!! how is that!!???!! i think it was a fake... those ones the companys send out as a sample!!!! DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>first of all when we arrived to check in the front desk clerk was no where to be found!! we had to ring a bell several times.. when she finally arrived she was very rude!!!even though my card was already on file she asked for it again swiped it and told me it was declined.. no was possibe.. i asked her to run it again and it went thru.. faulty card reader maybe?!!?!! when we got up to our room you could tell they hadnt temperature controlled the room.. i found a hair in the sink!!! no extra toiletries in the bathroom!!! the carpet was worn and rolled up and you could tell maintenance hadnt kept the room up...this is unacceptable!!!! we went out to dinner that night and upon our return our keys didnt work.. when we went down to the front desk to have them re-keyed the fd clerk was once againg very rude and seem that she was bothered by having to do her job!!! but the worst was yet to come!! THIS HOTEL IS INFESTED WITH BED BUGS!!! when i mentioned this to a houskeeper the next morning she told me that the owner was aware of this and refused to do anything about it!!! i was forced to speak to the front desk manager about this b/c the general manager was unavailable!!!! she told me she didnt know anything about the situation.. how is that...first of all when we arrived to check in the front desk clerk was no where to be found!! we had to ring a bell several times.. when she finally arrived she was very rude!!!even though my card was already on file she asked for it again swiped it and told me it was declined.. no was possibe.. i asked her to run it again and it went thru.. faulty card reader maybe?!!?!! when we got up to our room you could tell they hadnt temperature controlled the room.. i found a hair in the sink!!! no extra toiletries in the bathroom!!! the carpet was worn and rolled up and you could tell maintenance hadnt kept the room up...this is unacceptable!!!! we went out to dinner that night and upon our return our keys didnt work.. when we went down to the front desk to have them re-keyed the fd clerk was once againg very rude and seem that she was bothered by having to do her job!!! but the worst was yet to come!! THIS HOTEL IS INFESTED WITH BED BUGS!!! when i mentioned this to a houskeeper the next morning she told me that the owner was aware of this and refused to do anything about it!!! i was forced to speak to the front desk manager about this b/c the general manager was unavailable!!!! she told me she didnt know anything about the situation.. how is that when all of houskeeping was!!! after speaking to her about it i was only partially reimbursed!!!!!! i am shocked!!! how could an owner of any establishment knowingly not do anything!!! never again will my husband and i stay at this hotel!!! i had to got to a doctor to get medication for my bites!! which i had all over my body!!! i had to have my clothes washed before returning home!! and my vehicle detail for fear they would hitch hike home with me!!!! horrible experience!!! one thing i noticed was a diamond plaque on their wall!!! how is that!!???!! i think it was a fake... those ones the companys send out as a sample!!!! DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r90353187-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>90353187</t>
+  </si>
+  <si>
+    <t>12/20/2010</t>
+  </si>
+  <si>
+    <t>Passing Through</t>
+  </si>
+  <si>
+    <t>From the outside the hotel is nice, the staff is friendly, however, when I got into my room, I found that there was some blood spots on the sheets of one of the beds, when I asked the front desk clerk for a new set of sheets he said he would bring them up, as time past however I never got them , so, I had to go up to the desk and retrieve them myself. When I went to change the sheets, I discovered hair, underneath the the bottom sheets, and the sheets they sent me didnt fit the bed. Believe it or not it didnt end there, we didnt get enough towels and no shampoo or conditioner either, we had to retrieve everything on our own. I work for a Sleep inn my self and as an employee would never treat a guest this way. I do want to commend the staff, as they were friendly and courtious when we arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>From the outside the hotel is nice, the staff is friendly, however, when I got into my room, I found that there was some blood spots on the sheets of one of the beds, when I asked the front desk clerk for a new set of sheets he said he would bring them up, as time past however I never got them , so, I had to go up to the desk and retrieve them myself. When I went to change the sheets, I discovered hair, underneath the the bottom sheets, and the sheets they sent me didnt fit the bed. Believe it or not it didnt end there, we didnt get enough towels and no shampoo or conditioner either, we had to retrieve everything on our own. I work for a Sleep inn my self and as an employee would never treat a guest this way. I do want to commend the staff, as they were friendly and courtious when we arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r72056189-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>72056189</t>
+  </si>
+  <si>
+    <t>07/23/2010</t>
+  </si>
+  <si>
+    <t>VERY NICE SURPISED</t>
+  </si>
+  <si>
+    <t>Stayed at Sleep Inn on a family vacation and was surpised how nice of a hotel for the price. We had reservations for 1 night but stayed 3 because it was clean and the employees were so friendly  and helpful. The pool was nice and warm and clear.I would recomenned this hotel to anybody that wants a resonable hotel. Thank-you for making our trip wonderful.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r63701212-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>63701212</t>
+  </si>
+  <si>
+    <t>05/09/2010</t>
+  </si>
+  <si>
+    <t>Really really not good..</t>
+  </si>
+  <si>
+    <t>Sleep Inn continues to slide. Hallways smelled. Room smelled. Breakfast area was just plain unsanitary. Way below par for any hotel chain. Choice Int'l should be ashamed of most Sleep Inns. Avoid.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r47191783-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>47191783</t>
+  </si>
+  <si>
+    <t>10/18/2009</t>
+  </si>
+  <si>
+    <t>Dont Stay Here</t>
+  </si>
+  <si>
+    <t>Stayed here because of my sister's baby shower.  We were there just to sleep but it was still nasty.The bed spread had nasty spot but the sheets themselves were clean.  the carpet was a bit worn and not that clean. the window had some nasty stuff on the outside like a coke was thrown at it and when I mentioned it to the front desk person they didn't care.  I also explained that although I was at the top floor that the window did not close properly and that there was a gap which allowed cold outside air in.  Again no response.  The breakfast is a joke.  There are only about 5 tables and all there is some cold cereal and milk in a jub.  All of it is very unhygenic everyone using the same jug etc..  Overall a nasty experience.  The one thing I would say is that the bathroom was clean and the sheets were clean but the rest of it was nasty..  the rate is good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2009</t>
+  </si>
+  <si>
+    <t>Stayed here because of my sister's baby shower.  We were there just to sleep but it was still nasty.The bed spread had nasty spot but the sheets themselves were clean.  the carpet was a bit worn and not that clean. the window had some nasty stuff on the outside like a coke was thrown at it and when I mentioned it to the front desk person they didn't care.  I also explained that although I was at the top floor that the window did not close properly and that there was a gap which allowed cold outside air in.  Again no response.  The breakfast is a joke.  There are only about 5 tables and all there is some cold cereal and milk in a jub.  All of it is very unhygenic everyone using the same jug etc..  Overall a nasty experience.  The one thing I would say is that the bathroom was clean and the sheets were clean but the rest of it was nasty..  the rate is good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r17350297-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>17350297</t>
+  </si>
+  <si>
+    <t>06/29/2008</t>
+  </si>
+  <si>
+    <t>No Complaints</t>
+  </si>
+  <si>
+    <t>Okay, maybe some minor ones. The latch on the dorky sliding bathroom door didn't seem to work and the space in the breakfast area was fairly limited. Unless you're the real picky type, these things won't matter. The room was clean. So were the indoor pool and spa. The continental breakfast was more than adequate. The prairie dog "town" adjacent to the hotel was a bonus. We've stayed here before and would/will again.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r8853132-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>8853132</t>
+  </si>
+  <si>
+    <t>09/21/2007</t>
+  </si>
+  <si>
+    <t>Nice Surprise</t>
+  </si>
+  <si>
+    <t>I had never stayed in a Sleep Inn before and was holding my breath until I arrived.  I was in Denver for a 3 day trade show held at the Mechandise Mart and just needed a nearby, clean, quiet place to sleep.  What a pleasant surprise.Yes the rooms are small, I travel alone and managed just fine.  I think a couple would be fine for a few days as well.  The room was clean and quiet, didn't show much age, and the price was reasonable as well. Look, this is not the Four Seasons, but for a clean, quiet, comfortable place to take a shower and sleep, this can't be beat.I did love the warm chocolate chip cookies in the afternoon at the front desk.  Nice touch.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2007</t>
+  </si>
+  <si>
+    <t>I had never stayed in a Sleep Inn before and was holding my breath until I arrived.  I was in Denver for a 3 day trade show held at the Mechandise Mart and just needed a nearby, clean, quiet place to sleep.  What a pleasant surprise.Yes the rooms are small, I travel alone and managed just fine.  I think a couple would be fine for a few days as well.  The room was clean and quiet, didn't show much age, and the price was reasonable as well. Look, this is not the Four Seasons, but for a clean, quiet, comfortable place to take a shower and sleep, this can't be beat.I did love the warm chocolate chip cookies in the afternoon at the front desk.  Nice touch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r8502499-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>8502499</t>
+  </si>
+  <si>
+    <t>08/24/2007</t>
+  </si>
+  <si>
+    <t>Small clean rooms, small bathroom</t>
+  </si>
+  <si>
+    <t>This hotel, had small clean rooms, but the biggest downside is the very small bathroom with the sliding door, but the rooms were clean. After we left here we went to Molly Browns house in Denver, this was OK. We then headed to Durango, CO.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1576,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1608,3475 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>53</v>
+      </c>
+      <c r="X3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>80</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>62</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>116</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s">
+        <v>127</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>128</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>128</v>
+      </c>
+      <c r="O15" t="s">
+        <v>93</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>136</v>
+      </c>
+      <c r="K16" t="s">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>62</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>145</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" t="s">
+        <v>149</v>
+      </c>
+      <c r="L18" t="s">
+        <v>150</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>93</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>160</v>
+      </c>
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
+        <v>162</v>
+      </c>
+      <c r="L20" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>164</v>
+      </c>
+      <c r="O20" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>167</v>
+      </c>
+      <c r="K21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>164</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>164</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" t="s">
+        <v>179</v>
+      </c>
+      <c r="L23" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>93</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>182</v>
+      </c>
+      <c r="X23" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>190</v>
+      </c>
+      <c r="X24" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>192</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>193</v>
+      </c>
+      <c r="J25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25" t="s">
+        <v>196</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>197</v>
+      </c>
+      <c r="O25" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>198</v>
+      </c>
+      <c r="X25" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>69</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>81</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>62</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>221</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" t="s">
+        <v>223</v>
+      </c>
+      <c r="K29" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" t="s">
+        <v>225</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>226</v>
+      </c>
+      <c r="O29" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>62</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>240</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>246</v>
+      </c>
+      <c r="O33" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>254</v>
+      </c>
+      <c r="J34" t="s">
+        <v>255</v>
+      </c>
+      <c r="K34" t="s">
+        <v>256</v>
+      </c>
+      <c r="L34" t="s">
+        <v>257</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>246</v>
+      </c>
+      <c r="O34" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>264</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>266</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>267</v>
+      </c>
+      <c r="J36" t="s">
+        <v>268</v>
+      </c>
+      <c r="K36" t="s">
+        <v>269</v>
+      </c>
+      <c r="L36" t="s">
+        <v>270</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>264</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>272</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>273</v>
+      </c>
+      <c r="J37" t="s">
+        <v>274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>275</v>
+      </c>
+      <c r="L37" t="s">
+        <v>276</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>277</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>278</v>
+      </c>
+      <c r="J38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K38" t="s">
+        <v>280</v>
+      </c>
+      <c r="L38" t="s">
+        <v>281</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>282</v>
+      </c>
+      <c r="O38" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>288</v>
+      </c>
+      <c r="O39" t="s">
+        <v>62</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>290</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J40" t="s">
+        <v>292</v>
+      </c>
+      <c r="K40" t="s">
+        <v>293</v>
+      </c>
+      <c r="L40" t="s">
+        <v>294</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>295</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>297</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>298</v>
+      </c>
+      <c r="J41" t="s">
+        <v>299</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>301</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>302</v>
+      </c>
+      <c r="O41" t="s">
+        <v>93</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>303</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>304</v>
+      </c>
+      <c r="J42" t="s">
+        <v>305</v>
+      </c>
+      <c r="K42" t="s">
+        <v>306</v>
+      </c>
+      <c r="L42" t="s">
+        <v>307</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>295</v>
+      </c>
+      <c r="O42" t="s">
+        <v>62</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>302</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>314</v>
+      </c>
+      <c r="J44" t="s">
+        <v>315</v>
+      </c>
+      <c r="K44" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" t="s">
+        <v>317</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>302</v>
+      </c>
+      <c r="O44" t="s">
+        <v>93</v>
+      </c>
+      <c r="P44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>62</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>3</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>81</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>331</v>
+      </c>
+      <c r="J47" t="s">
+        <v>332</v>
+      </c>
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="L47" t="s">
+        <v>334</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>335</v>
+      </c>
+      <c r="O47" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>336</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>337</v>
+      </c>
+      <c r="J48" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" t="s">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s">
+        <v>340</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s">
+        <v>81</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>348</v>
+      </c>
+      <c r="O49" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>350</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>351</v>
+      </c>
+      <c r="J50" t="s">
+        <v>352</v>
+      </c>
+      <c r="K50" t="s">
+        <v>353</v>
+      </c>
+      <c r="L50" t="s">
+        <v>354</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>355</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>356</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>357</v>
+      </c>
+      <c r="J51" t="s">
+        <v>358</v>
+      </c>
+      <c r="K51" t="s">
+        <v>359</v>
+      </c>
+      <c r="L51" t="s">
+        <v>360</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>361</v>
+      </c>
+      <c r="O51" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>363</v>
+      </c>
+      <c r="J52" t="s">
+        <v>364</v>
+      </c>
+      <c r="K52" t="s">
+        <v>365</v>
+      </c>
+      <c r="L52" t="s">
+        <v>366</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>367</v>
+      </c>
+      <c r="O52" t="s">
+        <v>62</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>370</v>
+      </c>
+      <c r="J53" t="s">
+        <v>371</v>
+      </c>
+      <c r="K53" t="s">
+        <v>372</v>
+      </c>
+      <c r="L53" t="s">
+        <v>373</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>374</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>375</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>376</v>
+      </c>
+      <c r="J54" t="s">
+        <v>377</v>
+      </c>
+      <c r="K54" t="s">
+        <v>378</v>
+      </c>
+      <c r="L54" t="s">
+        <v>379</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>380</v>
+      </c>
+      <c r="O54" t="s">
+        <v>93</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>383</v>
+      </c>
+      <c r="J55" t="s">
+        <v>384</v>
+      </c>
+      <c r="K55" t="s">
+        <v>385</v>
+      </c>
+      <c r="L55" t="s">
+        <v>386</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_68.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_68.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="613">
   <si>
     <t>STR#</t>
   </si>
@@ -147,16 +147,67 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r597131777-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33668</t>
+  </si>
+  <si>
+    <t>120023</t>
+  </si>
+  <si>
+    <t>597131777</t>
+  </si>
+  <si>
+    <t>07/17/2018</t>
+  </si>
+  <si>
+    <t>Denver north hotel one of the best</t>
+  </si>
+  <si>
+    <t>Well me and my girls stay in Denver north hotel and it was under new ownership and new managment very plasent stay the Clark was fabulous great costumer service will stay here again room was very clean all staff are niceMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Cory M, Sr. V.P Of Operations  at Denver North Hotel, responded to this reviewResponded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2018</t>
+  </si>
+  <si>
+    <t>Well me and my girls stay in Denver north hotel and it was under new ownership and new managment very plasent stay the Clark was fabulous great costumer service will stay here again room was very clean all staff are niceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r596734191-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>596734191</t>
+  </si>
+  <si>
+    <t>07/16/2018</t>
+  </si>
+  <si>
+    <t>Dingy Hotel</t>
+  </si>
+  <si>
+    <t>First of all it is not an Econo Lodge and hasn't been 3 years for according the clerk.  The hotel itself was not clean and had construction material laying all over.  The sheets and towels were dingy and gray.  The remote batteries were being held in by tape.  Paid a higher price through this travel site than if I had walked in and paid.  I paid about $20.00 higher by going through this site.  Was more like a one star hotel than a two star.  Very disappointed in booking through a site that is assoicated with my state employee program.  Not sure I can trust again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>First of all it is not an Econo Lodge and hasn't been 3 years for according the clerk.  The hotel itself was not clean and had construction material laying all over.  The sheets and towels were dingy and gray.  The remote batteries were being held in by tape.  Paid a higher price through this travel site than if I had walked in and paid.  I paid about $20.00 higher by going through this site.  Was more like a one star hotel than a two star.  Very disappointed in booking through a site that is assoicated with my state employee program.  Not sure I can trust again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r587938106-Denver_North_Hotel-Thornton_Colorado.html</t>
-  </si>
-  <si>
-    <t>33668</t>
-  </si>
-  <si>
-    <t>120023</t>
   </si>
   <si>
     <t>587938106</t>
@@ -174,16 +225,7 @@
 I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had...I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo. The room had a smooth floor and not carpet, which I think is a good thing. It came with a larger-sized mini-fridge, which did hum on and off, but I use earplugs when I sleep so the hum didn't keep me awake. The air conditioner was a blessing in 90-degree+ weather, and worked great. No microwave oven, but I didn't need it, and if I did, I probably could have used the one I saw in the dining area. I usually put the "Do Not Disturb" sign on the door during the day so as not to trouble the cleaning staff while I'm out. But I forgot to do it one day and I returned to a tidy room with the bed made and my used towels replaced with new ones. The shower door even looked like it was cleaned, wow! Thanks!I didn't check out the breakfast situation until the morning of my departure, when I ventured over to get a paper plate, only to find breakfast had been canceled for some reason. Oh well. First-world problems!Overall, I was thankful to have stayed in a nice room at a good price, and appreciative of the pleasant front desk staff with whom I interacted. I liked the location near the 25 freeway and great shopping and dining options along 120th Ave.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>Cory M, Sr. V.P Of Operations  at Denver North Hotel, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
   </si>
   <si>
     <t>I stayed on the first floor in a non-smoking room (#208) with a king-sized bed for three nights (June 6, 7, and 8) and was very pleased with my stay. The room had the amenities I needed, it was clean, well-designed, and the appliances worked. I liked the convenient USB ports next to the alarm clock by the bed. I appreciated and used the free soap bar and bottle of shampoo.
@@ -237,6 +279,45 @@
     <t>Charged twice won’t refund it! Won’t return calls. Disgusting room. Couldn’t even give us a door key. Place should be leveled. Possible hooker in the lobby. Could go on and on.Room had the smell of dirty dog. Feet stuck to the floor. No Breakfast as advertised. No coffee left. Terrible  customer service.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r583641601-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>583641601</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>very clean very comfortable</t>
+  </si>
+  <si>
+    <t>very clean very comfortable friendly staff will stay again great location if you are looking hotel in Thornton please visit this hotel before you go some were else my son love to stay here  and great priceMoreShow less</t>
+  </si>
+  <si>
+    <t>very clean very comfortable friendly staff will stay again great location if you are looking hotel in Thornton please visit this hotel before you go some were else my son love to stay here  and great priceMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r534644526-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>534644526</t>
+  </si>
+  <si>
+    <t>10/20/2017</t>
+  </si>
+  <si>
+    <t>Terrible Customer Service</t>
+  </si>
+  <si>
+    <t>When I arrived at this hotel at 10:30 am I fully expected that a room might not be ready.  Since my son and I had just traveled a long distance and needed a nap, I went to the hotel hoping they would offer me to come back in an hour or so and have a room ready.  I got quite the opposite.  The girl at the front desk was BEYOND RUDE, she stated housekeeping had JUST started and that I would not be able to get a room at all until 3pm! I worked housekeeping for 3 years so I know that ONE room would be done before 3pm. She was SO RUDE (even her tone) that I called Choice Hotels and immediately asked for a refund and we went down the road to a very nice Holiday Inn, who got us in right away.  Don't ever give this place your money!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>When I arrived at this hotel at 10:30 am I fully expected that a room might not be ready.  Since my son and I had just traveled a long distance and needed a nap, I went to the hotel hoping they would offer me to come back in an hour or so and have a room ready.  I got quite the opposite.  The girl at the front desk was BEYOND RUDE, she stated housekeeping had JUST started and that I would not be able to get a room at all until 3pm! I worked housekeeping for 3 years so I know that ONE room would be done before 3pm. She was SO RUDE (even her tone) that I called Choice Hotels and immediately asked for a refund and we went down the road to a very nice Holiday Inn, who got us in right away.  Don't ever give this place your money!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r509895808-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -267,9 +348,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r508874448-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -288,6 +366,45 @@
     <t>I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby...I wish I could rate this lower than a 1. It is worth paying 10x more to NOT stay at this hotel. I booked online and noted on the reservation that we would be arriving late, around 1 am. This is common when we travel, and has never been an issue but I note it every time so that the front desk person will have our paperwork and keys available even if the system is updating as it does nightly. This time we walked to the front desk after a 9 hour drive through severe weather and the guy at the front desk just said he couldn't check us in because the system was updating. I asked how long it would be. He didn't know. Is asked to speak with an manager, he refused to give me that info. He basically failed at his BASIC job duties and did not print the open reservation information or at the very least, an open room list. He never apologized or even acted as if he wanted to help us find a solution. I had paid through the choice hotels website at booking so my room was paid for. I was upset, after a long and stressful drive I was frustrated by the lack of effort I was getting and raised my voice trying to get the front desk clerk to help me. I stepped away to use the bathroom in the lobby to calm down. The bathroom was disgusting. Overflowing trash can, not toilet paper, no soap, it looked as it it hadn't been cleaned for days. When I returned, I apologized for losing my cool and tried to reinitiate conversation to coach this kid into problem solving a way to helping us out. He refused to talk to me and said that he'd called the police. I was beside myself. I hadn't threatened him, just raised my voice. When the police arrived we had already tried to locate another hotel and everywhere was sold out that we called. We did, however, confirm that had we had a reservation at one of the other Choice hotels, we would be able to check into our room when the system was updating. We resigned to wait it out and check in once the system came back up but the kid at the desk said to the police as they were leaving "well, I don't have to let them stay" with a smirk on his face. We left and eventually found a room for $300/night at another hotel. I have since attempted to contact a manager and have been unsuccessful. No one at the front desk is even able to provide an email address or some sort of schedule of when I can try to contact a manager. Because of the nature of my husband's job, we travel frequently and stay in hotels all over the US and Canada and this is easily the WORST experience we have ever had. Stay away. I am not one to normally complain or leave long, disparaging reviews. I have worked in customer service my entire work life, and still do but this was the absolute worst experience I've ever had. The hotel owner would be wise to replace ever single employee at this hotel, as basic customer service is a strange and foreign concept here. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r507869766-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>507869766</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You have been warned </t>
+  </si>
+  <si>
+    <t>Pool was an open hazard to everyone allowed kids to swim insane..... rooms where a joke I paid 270 dollars for 2 nights I'm not sure how they got choice hotel branded stained sheets and pillows old beds construction going on all hours starting at 730-8am not impressed drove 1000 miles got in around noon had to pay extra 25 dollars to check in early really I just drove 1000 miles 13.5 hours and now you even want more money staff wasn't in no type of uniform to let ppl know they work there breakfast was a joke not worth even going on there sketchy elevator that shook and banged on every floor I'm really not sure how the city let ppl stay here wouldn't recommend this hotel...motel 6 is way better MoreShow less</t>
+  </si>
+  <si>
+    <t>Pool was an open hazard to everyone allowed kids to swim insane..... rooms where a joke I paid 270 dollars for 2 nights I'm not sure how they got choice hotel branded stained sheets and pillows old beds construction going on all hours starting at 730-8am not impressed drove 1000 miles got in around noon had to pay extra 25 dollars to check in early really I just drove 1000 miles 13.5 hours and now you even want more money staff wasn't in no type of uniform to let ppl know they work there breakfast was a joke not worth even going on there sketchy elevator that shook and banged on every floor I'm really not sure how the city let ppl stay here wouldn't recommend this hotel...motel 6 is way better More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r503903901-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>503903901</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Never again</t>
+  </si>
+  <si>
+    <t>I checked into hotel. First of all this should be a $50.00 a night hotel. They charge $69.00 and up. I am a choice diamond elite member and live in hotels 300 days a year. The air conditioner did not work well at all. Didn't complain at the time because I was tired and wanted to go to sleep. They did not even have flat screen tv's.  I was awakened at about 3:00 am. By something biting me on the back. Don't know what is was but guessing a spider. It left a big mark on my lower back.in the morning at checkout out I mentioned all this stuff to the desk clerk and she just shrugged it off like it was nothing. I would not recommend this dump to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I checked into hotel. First of all this should be a $50.00 a night hotel. They charge $69.00 and up. I am a choice diamond elite member and live in hotels 300 days a year. The air conditioner did not work well at all. Didn't complain at the time because I was tired and wanted to go to sleep. They did not even have flat screen tv's.  I was awakened at about 3:00 am. By something biting me on the back. Don't know what is was but guessing a spider. It left a big mark on my lower back.in the morning at checkout out I mentioned all this stuff to the desk clerk and she just shrugged it off like it was nothing. I would not recommend this dump to anyone.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r503685562-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -303,9 +420,6 @@
     <t>Location is pretty convenient, but that's about all. Room was moderately (but not completely) clean when I arrived and wasn't cleaned the entire time I stayed (1.5 weeks) in spite of asking while going to get towels every day (my job involves a lot of filth, so reusing towels really isn't an option). Breakfast was nearly always gone by the time I left everyday (7.45-8am), in spite of being open until 9am. Trying to get the staff to refill the breakfast stuff was rarely successful and always a hassle. Overall, not super impressed, especially given the rate.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r503635946-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -339,6 +453,42 @@
     <t>We booked our room early that day, when we arrived checked us in went out got our luggage and went to room. Keys didn't work, and another guy came up behind us and went into our room. Went down to front desk, manager was working. Very inappropriate and gave us another room, right by elevator, horrible location, tv was old and didn't work. Manager lied and said that was the only room left and nothing else he could do and left. Next front desk person came on gave us a third room, tv worked but it was a smoking room, very dirty and stinky, had to sleep with window open and air on. Burns all over the carpet. No toilet paper in room. Spider in shower. Disgusting! Manager said there is nothing he can do and pretty much ignored our concerns. Nothing. No breakfast left at 8am which said breakfast until 9am. Ice machine did not work on 4th floor. THE WORST motel I have ever stayed in! DO NOT stay here! Management is very unprofessional and inexperienced.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r492626066-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>492626066</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>They will wake you up and kick you out at 4 in the morning</t>
+  </si>
+  <si>
+    <t>Never stay with these idiots. I got kicked out at 5 in the morning with my two year old son in the snow. After being accused of smoking marijuana and motel I told the front desk guy it had to be coming from some other room. Then when I called back to talk to management it took more than 2 weeks to get a manager on the phone. Manager wasn't much help said that it was a misunderstanding they thought I was with a group of people that had smoke pot in the motel. All they offered was to give me my money back. They costed me an extra room at Motel 8 had to pay the rate for 2 days to stay at 5 in the morning till the next day straight b******* this Motel should be shut down I will be letting the Better Business Bureau know as of all of you should do. Also they did send me some of my money back not all. Some nerve of these people.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Never stay with these idiots. I got kicked out at 5 in the morning with my two year old son in the snow. After being accused of smoking marijuana and motel I told the front desk guy it had to be coming from some other room. Then when I called back to talk to management it took more than 2 weeks to get a manager on the phone. Manager wasn't much help said that it was a misunderstanding they thought I was with a group of people that had smoke pot in the motel. All they offered was to give me my money back. They costed me an extra room at Motel 8 had to pay the rate for 2 days to stay at 5 in the morning till the next day straight b******* this Motel should be shut down I will be letting the Better Business Bureau know as of all of you should do. Also they did send me some of my money back not all. Some nerve of these people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r491383557-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>491383557</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>Passing thru</t>
+  </si>
+  <si>
+    <t>Friendly staff, nice lobby, good breakfast, waffles and cold cereal items. Rooms are quiet, average size, clean and well appointed. Amenities included Mimi-fridge, microwave coffee pot and more. Bathroom included a shower with separate vanity area. Sleep comfort was OK. Location was convenient to shopping and I-25.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r488316043-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -372,9 +522,6 @@
     <t xml:space="preserve">We paid for a room and right when we got up there it smelled gross and was masked with an air freshener, it was dirty I didn't even want to sit on the bed. The elevator shook as we went up to our floor. Our kids wanted to swim and the pool didn't have water. Staff was rude we didn't feel welcomed it was very uncomfortable. We left about 5 minutes after being there and got a room at the ramada across the street. </t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r479567503-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -393,6 +540,42 @@
     <t>Stay here if you like getting overcharged. I was charged for three night, which I stayed, and four days later charged again for an additional four nights at a cost of almost $250.  I immediately contacted the hotel and asked to speak to the manager.  He wasn't available. I was promised a call back from the GM, James. I have continued to try to call him for the past four days and he does not reply via phone nor e-mail, except one that I could not open due to a virus. I escalated to the corporate level after three days and the only response I received was that the overages were returned already and they had sent me an email detailing it.  I never received an email from corporate.  I have been a Choice member in good standing for over ten years. If this is not resolved, I will be done with this chain.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r468710633-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>468710633</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great experience late night check in </t>
+  </si>
+  <si>
+    <t>We ended up here late night needing a room and they easily accommodated us.  The front desk guy was super friendly and told us all about their amenities and features.  Pillows and bed are super comfy, stayed in a handicapped room which worked out just fine.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r414412374-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>414412374</t>
+  </si>
+  <si>
+    <t>09/03/2016</t>
+  </si>
+  <si>
+    <t>Stay far away</t>
+  </si>
+  <si>
+    <t>This is by far the worst hotel I have ever stayed in and I have stayed in several crappy ones over the years. Only stayed here since most other places were booked up. The beds are awful. Sheets were still dirty. Had to sleep on the top of the covers. Should have went somewhere else whenever I said I had AAA membership and my total was the same as the person standing next to me who didn't have AAA. Luckily I only had to stay for one night. I would not recommend this hotel to anyone.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r409180727-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -444,6 +627,45 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r392547811-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>392547811</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>WORST HOTEL EVER</t>
+  </si>
+  <si>
+    <t>From the second I walked into the lobby of this hotel, it was AWFUL (the smell, cleanliness, greeting, service, etc). A gentleman was standing at the front desk trying to check in, appeared VERY FRUSTRATED. Another lady walked up and stated her room hadn't been cleaned and was requesting clean towels for her room. For myself, I booked a room in advance and when I showed up was told that I was going to be charged extra for my two children $10/child/night and hotel stated they were pet friendly and they only had 2 rooms for pets and they were taken and were going to charge me $25/night for my pet. After a long Back-and-forth conversation with "The Manager" of the hotel she told me we don't have any more rooms available. So, I was forced to try and find other lodging for 3 nights. I am currently calling Corporate offices trying to get "The Manager" fired. Worst experience ever...DO...NOT...STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>From the second I walked into the lobby of this hotel, it was AWFUL (the smell, cleanliness, greeting, service, etc). A gentleman was standing at the front desk trying to check in, appeared VERY FRUSTRATED. Another lady walked up and stated her room hadn't been cleaned and was requesting clean towels for her room. For myself, I booked a room in advance and when I showed up was told that I was going to be charged extra for my two children $10/child/night and hotel stated they were pet friendly and they only had 2 rooms for pets and they were taken and were going to charge me $25/night for my pet. After a long Back-and-forth conversation with "The Manager" of the hotel she told me we don't have any more rooms available. So, I was forced to try and find other lodging for 3 nights. I am currently calling Corporate offices trying to get "The Manager" fired. Worst experience ever...DO...NOT...STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r378327540-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>378327540</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>Staffs at the front desk were not super friendly but acceptable. Room was okay and breakfast was not that great. Housekeeping was not done on time, but I usually don't care much about it so it is okay. Overall, not a bad stay for the good location.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r369094349-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -501,6 +723,42 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r293144675-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>293144675</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>This hotel is nowhere near clean.  Refrigerator in room filthy. Noticed AC grill in lobby that is COATED in filth. Stay away unless there are no other alternatives.  Wish I had stayed at holiday inn express across street.  Not worth saving $10</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r291288429-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>291288429</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Worst GM</t>
+  </si>
+  <si>
+    <t>I booked a room at a discounted rate. At 4 pm the GM calls to say "Sorry we are overbooked. Try again in a couple weeks." Then hangs up. I call back and ask if she had any rooms. She says YES! Then I ask why she called and said she had no rooms. She gets mad and says who said that!? I said you just called so she looks up the reservation and said not for that rate. So I ask her again so do you have any rooms. She now says NO and hangs up. SO I have someone else call and book at the regular rate. But we don't have the cc so she is going to send a cc auto form. But says she's busy and the only person there so hangs up.We wait 10 min. My husband goes to check in. She says I haven't sent it yet. Starts asking him where he works, what is he doing there, his address ect. He tells her why does it matter since you are charging top rate. I call her back and she says I sent it twice. No I don't have it. She says email it to me I have no front desk person and I'm really busy. I call again and ask her why she said she had no rooms when she does. She says she can't give that rate. She's only allowed 2 at...I booked a room at a discounted rate. At 4 pm the GM calls to say "Sorry we are overbooked. Try again in a couple weeks." Then hangs up. I call back and ask if she had any rooms. She says YES! Then I ask why she called and said she had no rooms. She gets mad and says who said that!? I said you just called so she looks up the reservation and said not for that rate. So I ask her again so do you have any rooms. She now says NO and hangs up. SO I have someone else call and book at the regular rate. But we don't have the cc so she is going to send a cc auto form. But says she's busy and the only person there so hangs up.We wait 10 min. My husband goes to check in. She says I haven't sent it yet. Starts asking him where he works, what is he doing there, his address ect. He tells her why does it matter since you are charging top rate. I call her back and she says I sent it twice. No I don't have it. She says email it to me I have no front desk person and I'm really busy. I call again and ask her why she said she had no rooms when she does. She says she can't give that rate. She's only allowed 2 at the discount and she was confused because my fax was Colorado but my phone # is Kansas.  Then yells at me that the problem is the cc auth. I said you keep hanging up saying your busy and haven't checked your email. She hung up again. I called back it rang 15 times. I called again she answered WHAT... FYI there was 4 cars in the parking lot. My husband went in to cancel. WORST CUSTOMER SERVICE . YES SHE SAID SHE WAS THE GM. I told her she was rude and I was calling choice. She said YOU threaten me! I don't care. She just kept talking over me. I did call choice they said she didn't cancel the old res or make a new one. I can see why she doesn't have employees.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked a room at a discounted rate. At 4 pm the GM calls to say "Sorry we are overbooked. Try again in a couple weeks." Then hangs up. I call back and ask if she had any rooms. She says YES! Then I ask why she called and said she had no rooms. She gets mad and says who said that!? I said you just called so she looks up the reservation and said not for that rate. So I ask her again so do you have any rooms. She now says NO and hangs up. SO I have someone else call and book at the regular rate. But we don't have the cc so she is going to send a cc auto form. But says she's busy and the only person there so hangs up.We wait 10 min. My husband goes to check in. She says I haven't sent it yet. Starts asking him where he works, what is he doing there, his address ect. He tells her why does it matter since you are charging top rate. I call her back and she says I sent it twice. No I don't have it. She says email it to me I have no front desk person and I'm really busy. I call again and ask her why she said she had no rooms when she does. She says she can't give that rate. She's only allowed 2 at...I booked a room at a discounted rate. At 4 pm the GM calls to say "Sorry we are overbooked. Try again in a couple weeks." Then hangs up. I call back and ask if she had any rooms. She says YES! Then I ask why she called and said she had no rooms. She gets mad and says who said that!? I said you just called so she looks up the reservation and said not for that rate. So I ask her again so do you have any rooms. She now says NO and hangs up. SO I have someone else call and book at the regular rate. But we don't have the cc so she is going to send a cc auto form. But says she's busy and the only person there so hangs up.We wait 10 min. My husband goes to check in. She says I haven't sent it yet. Starts asking him where he works, what is he doing there, his address ect. He tells her why does it matter since you are charging top rate. I call her back and she says I sent it twice. No I don't have it. She says email it to me I have no front desk person and I'm really busy. I call again and ask her why she said she had no rooms when she does. She says she can't give that rate. She's only allowed 2 at the discount and she was confused because my fax was Colorado but my phone # is Kansas.  Then yells at me that the problem is the cc auth. I said you keep hanging up saying your busy and haven't checked your email. She hung up again. I called back it rang 15 times. I called again she answered WHAT... FYI there was 4 cars in the parking lot. My husband went in to cancel. WORST CUSTOMER SERVICE . YES SHE SAID SHE WAS THE GM. I told her she was rude and I was calling choice. She said YOU threaten me! I don't care. She just kept talking over me. I did call choice they said she didn't cancel the old res or make a new one. I can see why she doesn't have employees.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r286846041-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -552,6 +810,51 @@
     <t>I was looking at their website where it clearly states that this econo lodge is a pet-friendly hotel but when my husband called to verify this information they said that they only have TWO pet-friendly rooms!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r271149328-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>271149328</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Econo-nono</t>
+  </si>
+  <si>
+    <t>This property was a Sleep Inn and is now an Econo Lodge. You know that when a motel is down graded in a system (the Choice Group) it isn't a good sign. There are many things wrong with this motel and it is isn't enough room to list them all: but, some are - poor bed, poor pillows, poor breakfast, poor ironing board, AND the absolutely absurdly slowest Internet that you can imagine. The Internet would not even download some pages regardless of how long you gave it.The only good thing would be that it is located near a convenient Interstate exit.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r268166014-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>268166014</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>I ended up staying here for a couple of nights.  I was looking for something cheap.  This indeed was nice on the wallet.  I booked a smoking room for my boyfriend.  The staff was very nice.  Our room was a decent size.  Everything was pretty decent.  Although the carpet had big holes in it by the bed.  Needs a little updating.  I think the a/c started to not work right before we left because the room wasn't nearly as cool as when we first originally checked in.  The breakfast in the morning was very minimal.  Cereal, waffle, muffin, donut holes, English muffin.  Wasn't very busy in the breakfast area though.  I didn't get a chance to try the pool or fitness room...which were located in the basement pretty much.  Applebee's and Lonestar Restaurants were in walking distance though so that was nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Carrie L, Manager at Denver North Hotel, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>I ended up staying here for a couple of nights.  I was looking for something cheap.  This indeed was nice on the wallet.  I booked a smoking room for my boyfriend.  The staff was very nice.  Our room was a decent size.  Everything was pretty decent.  Although the carpet had big holes in it by the bed.  Needs a little updating.  I think the a/c started to not work right before we left because the room wasn't nearly as cool as when we first originally checked in.  The breakfast in the morning was very minimal.  Cereal, waffle, muffin, donut holes, English muffin.  Wasn't very busy in the breakfast area though.  I didn't get a chance to try the pool or fitness room...which were located in the basement pretty much.  Applebee's and Lonestar Restaurants were in walking distance though so that was nice.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r244888453-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -627,6 +930,45 @@
     <t>We pulled into Denver about 1 A.M. tired and just looking for a place to sleep. We checked a couple of the hotels at 120th which had no vacancies.  We came across the Econo Lodge. It cost  $109.00 plus for a double room which is ridiculous! The room was awful, so dirty I was going to ask for our money back...the clerk made us sign a no refund policy.  Stains on the carpet, sheets were dirty and towels were old and very thin. There was a continental breakfast but not enough places to set so we just had coffee and left.  Do not stay in this Hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r203912265-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>203912265</t>
+  </si>
+  <si>
+    <t>05/03/2014</t>
+  </si>
+  <si>
+    <t>Not worth $80</t>
+  </si>
+  <si>
+    <t>After driving all day we stopped here for showers and sleep, saw the website and thought it looked like a nice clean place. Whoa, were we wrong!! Had to move from the 1st room and the 2nd room was even worse!! Dirty, outdated and breakfast was terrible!! If we weren't so tired and could of kept driving we would have drove some where else. Brought it to the manager's attention and he was just like "sorry have a nice day." oh yeah and the kids found some old crusty pizza on the side of the bed. Trust me you don't wanna waste your money</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r198670250-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>198670250</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>So not worth the price</t>
+  </si>
+  <si>
+    <t>We pulled into Denver at 1 A.M. tired and just looking for a place to sleep. We stumbled upon the Econo Lodge. It cost me a little over $80.00 for a double room which is ridiculous! The room was dirty with satins all over the carpet and some unknown black stuff on the towels. The bed was horribly uncomfortable with tiny pillows and the T.V. ancient. There was a continental breakfast but coming in at 1 A.M&gt; there was no way we were going to be down stairs to eat before 9 A.M. The only redeeming quality was the bathroom which had a reasonably large shower with great pressure and plenty of hot water. When we checked out in the morning I had to track down the desk clerk who was busy flirting with another guest and it took her about 10mins just to print out my recipe.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We pulled into Denver at 1 A.M. tired and just looking for a place to sleep. We stumbled upon the Econo Lodge. It cost me a little over $80.00 for a double room which is ridiculous! The room was dirty with satins all over the carpet and some unknown black stuff on the towels. The bed was horribly uncomfortable with tiny pillows and the T.V. ancient. There was a continental breakfast but coming in at 1 A.M&gt; there was no way we were going to be down stairs to eat before 9 A.M. The only redeeming quality was the bathroom which had a reasonably large shower with great pressure and plenty of hot water. When we checked out in the morning I had to track down the desk clerk who was busy flirting with another guest and it took her about 10mins just to print out my recipe.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r182384625-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -687,6 +1029,42 @@
     <t>First i would like to say that I might need to go to the hospital and get a few shots after staying here... The room that they put us in was in the basement and the ac did not work. i have to enplane to the staff what was going on with the ac set to cold air and hot air coming out....second i went to get something from the vending machine..... both were out of order.....When i wanted to take my two kids to the pool that was a bad idea.... there was a turd on the bottom of the pool.... i have the pictures to prove it. they tried to clean the pool with about 5 of the chlorine tablets.......the hot tub was not working at all....After speaking to the front desk they moved me to the 3rd floor.... not much better other than I could take my shoes off and not feel dirty on the floor....Doors slamming all night long.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r175009605-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>175009605</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Couldn't wait to leave. Horrible experience.</t>
+  </si>
+  <si>
+    <t>Just left this hotel and it wasn't soon enough.  The keys to the room didn't function.  The lower level side entrance door remained unlocked/pried open throughout the day and night, the carpeting in the room was frayed to the point where you could staple ends were visible and possibly dangerous, the refrigerator didn't work to the point where I plugged it in and could smell the coils starting to heat up, and the overall building (floors, pool, exercise room) is just old and beat up.  I wish I had good things to say about this place but the entire experience was awful.  The woman working the front desk was friendly once she realized I'd been standing there for a minute waiting for her to acknowledge me.  Writing bad reviews is not an action I make a habit of.  I just wanted to put this out there to offer caution.  I was in Thornton for a wedding and should have stayed next door at the Hampton Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just left this hotel and it wasn't soon enough.  The keys to the room didn't function.  The lower level side entrance door remained unlocked/pried open throughout the day and night, the carpeting in the room was frayed to the point where you could staple ends were visible and possibly dangerous, the refrigerator didn't work to the point where I plugged it in and could smell the coils starting to heat up, and the overall building (floors, pool, exercise room) is just old and beat up.  I wish I had good things to say about this place but the entire experience was awful.  The woman working the front desk was friendly once she realized I'd been standing there for a minute waiting for her to acknowledge me.  Writing bad reviews is not an action I make a habit of.  I just wanted to put this out there to offer caution.  I was in Thornton for a wedding and should have stayed next door at the Hampton Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r169439661-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>169439661</t>
+  </si>
+  <si>
+    <t>07/28/2013</t>
+  </si>
+  <si>
+    <t>Name changed to Econolodge. Still not very good.</t>
+  </si>
+  <si>
+    <t>The hotel is OK at best. Everywhere you look, I get the impression the staff just doesn't really care.  For example, during "breakfast", the food and supplies never seem to get restocked. They run out of cups, milk, donuts...and even coffee.  In the hotel room, there was a lot of unvacumed crud in the corners and there was no remote control for the TV.  And the carpeting had big spots that were worn through.  The room is small with a very small bathrom area. The good news was that the beds were comfortable and clean.  And it was nice that you could open the windows for some fresh air.  I wouldn't stay here again unless I had to. MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is OK at best. Everywhere you look, I get the impression the staff just doesn't really care.  For example, during "breakfast", the food and supplies never seem to get restocked. They run out of cups, milk, donuts...and even coffee.  In the hotel room, there was a lot of unvacumed crud in the corners and there was no remote control for the TV.  And the carpeting had big spots that were worn through.  The room is small with a very small bathrom area. The good news was that the beds were comfortable and clean.  And it was nice that you could open the windows for some fresh air.  I wouldn't stay here again unless I had to. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r153973440-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -747,6 +1125,39 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r143147753-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>143147753</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>excellent staff!! they went out of their way to help us. Tara at the front desk was great!! the rooms are clean and comfortable. Great stay for the price!!! Never stayed here before but would reccomend it!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r138437179-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>138437179</t>
+  </si>
+  <si>
+    <t>08/26/2012</t>
+  </si>
+  <si>
+    <t>A clean, friendly, well-located bargain</t>
+  </si>
+  <si>
+    <t>Reservation was fast and easy, the rate was VERY affordable, service was wonderful, and the room was clean.  Enough amenities to make it a value, without a lot of things we didn't need.  Nearby shopping, dining and recreation and plenty of parking.  Haters are expecting a golden horseshoe for pennies.  Unless you want to drop a Franklin and a lot of change, you don't expect to stay at Trump Towers.  After decades on the road, staying in every kind of hotel from the top of the line to the very crusty bottom, I would rate this a good deal.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r137274104-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -762,9 +1173,6 @@
     <t>from the pool, to the tub of butter everyone has to share at breakfast, this hotel is discusting, smelly, and doesnt have a polite staff, choice needs to remove this hotel from their chain, this hotel makes choice look horrible, Tk is rude and doesnt care about his quests and their comfortability what so ever.</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r135624576-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -801,6 +1209,33 @@
     <t>I just wanted to say that I had  a wonderful stay at the Sleep INN Denver north.  The staff were excellent they were very frendly and helpful I stayed at this hotel for 4 nights with my friends Linda was a great help when I asked for directions I needed to know how to get go a good mexican food and Linda was great for giving me directions to the mexican resturant.  The housekeeping staff were great the Room were extreemly clean they were way above my expections The breakfast was excellent they had a veriety of everything the waffles were great this hotel is well kept and I will for sure return to this property co103 was great see you in the future.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r134015431-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>134015431</t>
+  </si>
+  <si>
+    <t>was there  Jun 29  there was some sort of team in the Lobby being very disruptive and un disciplined (not the kids) but the adults?, one man in particular was in a tirade yell and calling the staff member names.  When he left he threw a piece of furniture against a tree and broke it. The staff member was trying to talk calmly but none of them would allow staff was very professional in attempting to diffuse the situation. My room was comfortable clean and quiet. I tried the pool it was clean and pleasant Breakfast may have been slightly better but with so many people I understand</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r133678032-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>133678032</t>
+  </si>
+  <si>
+    <t>07/07/2012</t>
+  </si>
+  <si>
+    <t>6-23   had to evacuate bec. of the fire.</t>
+  </si>
+  <si>
+    <t>Charlie at 800 said credit card only hold tell we sign in. LIE, she gave us wrong address. We couldn’t find the hotel and called TJ the manager and explained, wanted to cancel. TJ kept saying I NO credit your card, TOO Bad, I ran card. Very RUDE.  TJ should have understood.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r133590479-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -816,9 +1251,6 @@
     <t>I called this hotel to book a room with two QUEEN beds.  They said it was available and I booked the room.  When I checked in I confirmed that the room had two QUEEN beds.  She confirmed that it did.  When we got to the room, it had two DOUBLE beds.  Apparently the staff at this hotel does not know the difference between a queen bed and a double bed.  The AC would not go below about 76 and it was way too hot in this room to sleep.  Called the front desk about 10:30 to have someone look at the AC and no one ever showed up.  Rundown and not very well staffed.  We usually like the Choice Hotel chain hotels but stay away from this one!MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>I called this hotel to book a room with two QUEEN beds.  They said it was available and I booked the room.  When I checked in I confirmed that the room had two QUEEN beds.  She confirmed that it did.  When we got to the room, it had two DOUBLE beds.  Apparently the staff at this hotel does not know the difference between a queen bed and a double bed.  The AC would not go below about 76 and it was way too hot in this room to sleep.  Called the front desk about 10:30 to have someone look at the AC and no one ever showed up.  Rundown and not very well staffed.  We usually like the Choice Hotel chain hotels but stay away from this one!More</t>
   </si>
   <si>
@@ -855,6 +1287,39 @@
     <t>The hotel looks nice on the outside but the rooms are small, the tv's are old and the room is very outdated. Not a place I would recommend. I'm wondering if they got a discount for buying old beat up furniture, sort of reminded me of a college dorm room. The remote for the tv was crusted over with what looked like bbq sauce..just gross.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r128653496-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>128653496</t>
+  </si>
+  <si>
+    <t>04/26/2012</t>
+  </si>
+  <si>
+    <t>AWESOME</t>
+  </si>
+  <si>
+    <t>i stayed there a couple of weeks ago i admit i was a little scared aqfter i read some of the reviews , but when i arrived i was completly surprised the hotel was super clean when i arrived and and smelled super fresh, the front dest staff were super helpful and made sure i was comfortable and well taken care of , i will definetly be back :}</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r127940705-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>127940705</t>
+  </si>
+  <si>
+    <t>04/15/2012</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>I would never stay at this sleep inn again. It was so gross the room was not clean at all. Bathroom  had feces all over it the floors had not been clean stuff in the bed. And the help was no help at all.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r127342071-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -870,9 +1335,6 @@
     <t>I didnt encounter any bed bugs, thank god...but i was greeted by the most friendly staff, they really went out of their way to help me, my room was very clean, smelled very clean. I had a wonderful stay, very comfortable bed, and a nice breakfast. Ill be back!</t>
   </si>
   <si>
-    <t>April 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r124368400-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -915,6 +1377,45 @@
     <t>Stay far away from this place.  I was bitten horrendously by a bed bug infestation.  When I called the hotel to explain, no one ever returned my call.  When I called customer service I got an ID # and no one ever called me back as promised.  When I called to find out the status, they told me a letter was mailed to me and they would have to call a general manager to reveal the contents of said letter.  Needless to say, no letter was ever received on my end.  Worst travel experience of my life.  Definitely NOT worth the few pennies you will save.  Cleanliness......F!  Customer Service............F!   Run-around.................A+!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r119816356-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>119816356</t>
+  </si>
+  <si>
+    <t>10/27/2011</t>
+  </si>
+  <si>
+    <t>Only 1 Night - But Very Nice</t>
+  </si>
+  <si>
+    <t>Clean, quiet, affordable and comfortable, would definately stay here again</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r118847977-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>118847977</t>
+  </si>
+  <si>
+    <t>10/02/2011</t>
+  </si>
+  <si>
+    <t>THE WORST!</t>
+  </si>
+  <si>
+    <t>My wife and I travel on a motorcycle and we need a nice hotel with no problems at the end of the day. I would rather sleep on my motorcycle next time if this was the only hotel to stay at. We stayed one night but were charged for two, the staff member who I believe to be the owners son said he would take care of it but it was on my credit card statement and phone calls to the hotel were not returned by the owner. We booked a nonsmoking room but the room smelled real bad, a cross between heavy smoke and a cleaning agent to mask the smoke. There was also an ashtray with a book of matches on the dresser and cigarette burns everywhere, even in the bathroom. I asked the manager about the smell in the room and it not being a nonsmoking room and he told me not to worry about it. Manager on duty that night was very arrogant and he lied to me, thought my problems were funny. Outdated room and the breakfast room was the size of a postage stamp with very little to eat and not very clean. Side door to parking lot was not working and the hotel was a bad experience all the way around. Next time I will ride right on through the Denver area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>My wife and I travel on a motorcycle and we need a nice hotel with no problems at the end of the day. I would rather sleep on my motorcycle next time if this was the only hotel to stay at. We stayed one night but were charged for two, the staff member who I believe to be the owners son said he would take care of it but it was on my credit card statement and phone calls to the hotel were not returned by the owner. We booked a nonsmoking room but the room smelled real bad, a cross between heavy smoke and a cleaning agent to mask the smoke. There was also an ashtray with a book of matches on the dresser and cigarette burns everywhere, even in the bathroom. I asked the manager about the smell in the room and it not being a nonsmoking room and he told me not to worry about it. Manager on duty that night was very arrogant and he lied to me, thought my problems were funny. Outdated room and the breakfast room was the size of a postage stamp with very little to eat and not very clean. Side door to parking lot was not working and the hotel was a bad experience all the way around. Next time I will ride right on through the Denver area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r118507984-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -930,9 +1431,6 @@
     <t>Have stayed for business purposes 3 times. Last time was not nice. Hotel is outdated, staff not friendly, Lobby very small, not taken care of, breakfast room small and not inviting. 11 miles from downtown. Not going to stay there anymore.</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r116529117-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -963,6 +1461,48 @@
     <t>The a/c didn't work &amp; we had to sleep w/ the window open all night w/ a fan going. Very noisy. It was difficult to get assistance. The general appearance of the hotel was run-down. We were looking forward to using the pool, but it was an unhealthy looking green. Overall, just an unpleasant experience. Never going back again.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r116070796-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>116070796</t>
+  </si>
+  <si>
+    <t>07/31/2011</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>We had friends staying here...They had been here three days, had reserved for four more, and when returning to the hotel at 11 pm, they were told they had been checked out!  Their things had been packed and put in storage and they were checked out at 2 am the previous morning (while they were sleeping) according to the computer...Oddly enough, there was a Microsoft convention in town...  Sleep Inn is off my list forever!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r115979228-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>115979228</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>I wish I never stayed here, lying management</t>
+  </si>
+  <si>
+    <t>After a long drive we checked in around 5pm. We got to our room and the door was propped open. Housekeeping came a few minutes later and was surprised they put someone in the room. She gave us towels and mentioned that they just replaced the AC unit. 
+We showered and left to Denver for dinner and exploring the city. We came back around 11pm to get some sleep before our flight home the next day. The AC was on high the entire time we were gone but it was still extremely hot in the room. The daytime temps were in the 90's and we were on the 4th floor. The front desk sent a maintenance guy up at 12:30am and he determined the AC unit was bad. They said they couldn't move us to another room and there were no other hotels available in the area. The manager came up around 1am and agreed it was hot in the room and said he was sweating after 3 minutes being there. 
+He went to the store to purchase two fans to try to make it more comfortable. He agreed to call Expedia the following day to get us a refund. 
+I waited a few days and finally called Expedia to make sure it was taken care of. Expedia support called him and he denied ever saying this. He told Expedia since we stayed there they had to charge us the...After a long drive we checked in around 5pm. We got to our room and the door was propped open. Housekeeping came a few minutes later and was surprised they put someone in the room. She gave us towels and mentioned that they just replaced the AC unit. We showered and left to Denver for dinner and exploring the city. We came back around 11pm to get some sleep before our flight home the next day. The AC was on high the entire time we were gone but it was still extremely hot in the room. The daytime temps were in the 90's and we were on the 4th floor. The front desk sent a maintenance guy up at 12:30am and he determined the AC unit was bad. They said they couldn't move us to another room and there were no other hotels available in the area. The manager came up around 1am and agreed it was hot in the room and said he was sweating after 3 minutes being there. He went to the store to purchase two fans to try to make it more comfortable. He agreed to call Expedia the following day to get us a refund. I waited a few days and finally called Expedia to make sure it was taken care of. Expedia support called him and he denied ever saying this. He told Expedia since we stayed there they had to charge us the full amount. We had a terrible stay there and the management was unwilling to do the right thing and refund our money. If he couldn't do it he shouldn't have told us he would.MoreShow less</t>
+  </si>
+  <si>
+    <t>After a long drive we checked in around 5pm. We got to our room and the door was propped open. Housekeeping came a few minutes later and was surprised they put someone in the room. She gave us towels and mentioned that they just replaced the AC unit. 
+We showered and left to Denver for dinner and exploring the city. We came back around 11pm to get some sleep before our flight home the next day. The AC was on high the entire time we were gone but it was still extremely hot in the room. The daytime temps were in the 90's and we were on the 4th floor. The front desk sent a maintenance guy up at 12:30am and he determined the AC unit was bad. They said they couldn't move us to another room and there were no other hotels available in the area. The manager came up around 1am and agreed it was hot in the room and said he was sweating after 3 minutes being there. 
+He went to the store to purchase two fans to try to make it more comfortable. He agreed to call Expedia the following day to get us a refund. 
+I waited a few days and finally called Expedia to make sure it was taken care of. Expedia support called him and he denied ever saying this. He told Expedia since we stayed there they had to charge us the...After a long drive we checked in around 5pm. We got to our room and the door was propped open. Housekeeping came a few minutes later and was surprised they put someone in the room. She gave us towels and mentioned that they just replaced the AC unit. We showered and left to Denver for dinner and exploring the city. We came back around 11pm to get some sleep before our flight home the next day. The AC was on high the entire time we were gone but it was still extremely hot in the room. The daytime temps were in the 90's and we were on the 4th floor. The front desk sent a maintenance guy up at 12:30am and he determined the AC unit was bad. They said they couldn't move us to another room and there were no other hotels available in the area. The manager came up around 1am and agreed it was hot in the room and said he was sweating after 3 minutes being there. He went to the store to purchase two fans to try to make it more comfortable. He agreed to call Expedia the following day to get us a refund. I waited a few days and finally called Expedia to make sure it was taken care of. Expedia support called him and he denied ever saying this. He told Expedia since we stayed there they had to charge us the full amount. We had a terrible stay there and the management was unwilling to do the right thing and refund our money. If he couldn't do it he shouldn't have told us he would.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r115468064-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -996,9 +1536,6 @@
     <t>Question: how do you drive a new BMW? Buy a Sleep inn and run it into the ground. This place is full because of choice hotels.(.) Choice needs to rough up cheap bums such as these clowns. Staff is busting butt while gym equipment is busted and gym hot as hell. room carpet was dirty -spread had a burn hole in our NS room. For seeing Denver area you cant beat this location.</t>
   </si>
   <si>
-    <t>June 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r114776828-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1014,6 +1551,39 @@
     <t>We paid $78 for one night here and it was not worth the money. The staff were not particularly friendly or helpful. We had to switch rooms because the AC was not working. Our second room was fairly clean, but small and a bit "tired". The breakfast area is tiny and the selection very limited. The location is good for restaurants and stores just a short walk away. There are lots of hotels in the area, so I'd recommened staying somewhere else.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r113188090-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>113188090</t>
+  </si>
+  <si>
+    <t>06/13/2011</t>
+  </si>
+  <si>
+    <t>Inexpensive. No truck parking.</t>
+  </si>
+  <si>
+    <t>If you need an inexpensive room this is fine. Walk to restaurants. Small parking lot.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r112411585-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>112411585</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>I no issues, the room was clean and affordable.</t>
+  </si>
+  <si>
+    <t>The staff was very hospitable and the room was exceptionally clean (my favorite part of the stay).  I was in town for business and was very impressed with the internet speeds at the hotel, it was faster than being at home on my high speed line.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r109970745-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1029,9 +1599,6 @@
     <t>Had to stay  in hotel while semi truck was in the shop. Stayed for 5 days. This is not the fanciest hotel but its nice and clean and they are in process of remodeling. Big rooms and lots of restaurants and grocery stores near by.The thing we were impressed with was the staff. Everyone was so nice and even though busy still stopped to chat with you. Anytime there was any problem they were quick to fix it and with a smile. every shift was like this! Very enjoyable stay. I would defiantly stay here again!!</t>
   </si>
   <si>
-    <t>May 2011</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r105100043-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1074,6 +1641,45 @@
     <t>From the outside the hotel is nice, the staff is friendly, however, when I got into my room, I found that there was some blood spots on the sheets of one of the beds, when I asked the front desk clerk for a new set of sheets he said he would bring them up, as time past however I never got them , so, I had to go up to the desk and retrieve them myself. When I went to change the sheets, I discovered hair, underneath the the bottom sheets, and the sheets they sent me didnt fit the bed. Believe it or not it didnt end there, we didnt get enough towels and no shampoo or conditioner either, we had to retrieve everything on our own. I work for a Sleep inn my self and as an employee would never treat a guest this way. I do want to commend the staff, as they were friendly and courtious when we arrived.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r80969766-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>80969766</t>
+  </si>
+  <si>
+    <t>09/25/2010</t>
+  </si>
+  <si>
+    <t>BIT BY A BUG IN BED</t>
+  </si>
+  <si>
+    <t>I had a small black bug crawling on my shoulder while is was sitting up in bed along with the a/c in the room not working and the phone.  I was put in another room where the a/c worked and looked free of bugs.  Coming back up from breakfast found a bug the size of an eraser head crawling across my bed.  I got a tissue to kill it and blood was inside the bug.  I took it downstairs and complained.  Came back to my room to shower and get ready only to realize that must have been my blood cause I had a bug bite on my lower stomach area by my hip.  1 week later and still no call from the hotel manager Mr Khan......I turned the hotel into Choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>I had a small black bug crawling on my shoulder while is was sitting up in bed along with the a/c in the room not working and the phone.  I was put in another room where the a/c worked and looked free of bugs.  Coming back up from breakfast found a bug the size of an eraser head crawling across my bed.  I got a tissue to kill it and blood was inside the bug.  I took it downstairs and complained.  Came back to my room to shower and get ready only to realize that must have been my blood cause I had a bug bite on my lower stomach area by my hip.  1 week later and still no call from the hotel manager Mr Khan......I turned the hotel into Choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r74916347-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>74916347</t>
+  </si>
+  <si>
+    <t>08/12/2010</t>
+  </si>
+  <si>
+    <t>Great Hotel For the price</t>
+  </si>
+  <si>
+    <t>I own a small business and am on a budget and thought I would save some money to that at the Sleep Inn. To my surprize I was  very pleased with the hotel. The breakfast was wonderful and the employees went out of the way to assit me on my business direction. I would recommend this  to any business that is needing great hotel for a small price.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r72056189-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1089,9 +1695,6 @@
     <t>Stayed at Sleep Inn on a family vacation and was surpised how nice of a hotel for the price. We had reservations for 1 night but stayed 3 because it was clean and the employees were so friendly  and helpful. The pool was nice and warm and clear.I would recomenned this hotel to anybody that wants a resonable hotel. Thank-you for making our trip wonderful.</t>
   </si>
   <si>
-    <t>July 2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r63701212-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1131,6 +1734,54 @@
     <t>Stayed here because of my sister's baby shower.  We were there just to sleep but it was still nasty.The bed spread had nasty spot but the sheets themselves were clean.  the carpet was a bit worn and not that clean. the window had some nasty stuff on the outside like a coke was thrown at it and when I mentioned it to the front desk person they didn't care.  I also explained that although I was at the top floor that the window did not close properly and that there was a gap which allowed cold outside air in.  Again no response.  The breakfast is a joke.  There are only about 5 tables and all there is some cold cereal and milk in a jub.  All of it is very unhygenic everyone using the same jug etc..  Overall a nasty experience.  The one thing I would say is that the bathroom was clean and the sheets were clean but the rest of it was nasty..  the rate is good.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r43185188-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>43185188</t>
+  </si>
+  <si>
+    <t>09/20/2009</t>
+  </si>
+  <si>
+    <t>if you have a chance to stay somewhere DO IT BAD ROOMS BAD POOL JUST BAD</t>
+  </si>
+  <si>
+    <t>I was moved 4 times ( carpet was horrible, 1 room had no ac, bugs in the bathroom),  pool had a scum layer on it  and could not be sanitary, I was double charged and called a liar. What did I get? A refund of $7, now wasn't that big of them??  
+At what point does customer satisfaction and old fashioned professionalism come into play. Do you know what a sincere apology and at least a half refund would have done?? It wouldn't have gotten him this lousy review. There are a few simple things a motel guest expects and has the right to expect: A decent room (clean straight carpets, no bugs, clean smelling sheets, clean smelling towels, a working tv and a good mattress), a clean pool, helpful honest desk help, an apology when the charge is incorrect, and enough breakfast at the counter to keep the customer from being offended, and most important... When a motel concentrates on the best interests of it's guests, you cannot put a price tag on that. That motel becomes the  cream of the crop and it is a joy for the customer to stay. That is not the desire of this motel. The customer seems to be a bother to them. It's as if they have forgotten who is providing their paycheck.
+When a bad situation is preventable that is a terrible thing. But when a preventable situation isn't amended, corrected...I was moved 4 times ( carpet was horrible, 1 room had no ac, bugs in the bathroom),  pool had a scum layer on it  and could not be sanitary, I was double charged and called a liar. What did I get? A refund of $7, now wasn't that big of them??  At what point does customer satisfaction and old fashioned professionalism come into play. Do you know what a sincere apology and at least a half refund would have done?? It wouldn't have gotten him this lousy review. There are a few simple things a motel guest expects and has the right to expect: A decent room (clean straight carpets, no bugs, clean smelling sheets, clean smelling towels, a working tv and a good mattress), a clean pool, helpful honest desk help, an apology when the charge is incorrect, and enough breakfast at the counter to keep the customer from being offended, and most important... When a motel concentrates on the best interests of it's guests, you cannot put a price tag on that. That motel becomes the  cream of the crop and it is a joy for the customer to stay. That is not the desire of this motel. The customer seems to be a bother to them. It's as if they have forgotten who is providing their paycheck.When a bad situation is preventable that is a terrible thing. But when a preventable situation isn't amended, corrected or even compensated for, then there should be impacting repercussions. Please don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I was moved 4 times ( carpet was horrible, 1 room had no ac, bugs in the bathroom),  pool had a scum layer on it  and could not be sanitary, I was double charged and called a liar. What did I get? A refund of $7, now wasn't that big of them??  
+At what point does customer satisfaction and old fashioned professionalism come into play. Do you know what a sincere apology and at least a half refund would have done?? It wouldn't have gotten him this lousy review. There are a few simple things a motel guest expects and has the right to expect: A decent room (clean straight carpets, no bugs, clean smelling sheets, clean smelling towels, a working tv and a good mattress), a clean pool, helpful honest desk help, an apology when the charge is incorrect, and enough breakfast at the counter to keep the customer from being offended, and most important... When a motel concentrates on the best interests of it's guests, you cannot put a price tag on that. That motel becomes the  cream of the crop and it is a joy for the customer to stay. That is not the desire of this motel. The customer seems to be a bother to them. It's as if they have forgotten who is providing their paycheck.
+When a bad situation is preventable that is a terrible thing. But when a preventable situation isn't amended, corrected...I was moved 4 times ( carpet was horrible, 1 room had no ac, bugs in the bathroom),  pool had a scum layer on it  and could not be sanitary, I was double charged and called a liar. What did I get? A refund of $7, now wasn't that big of them??  At what point does customer satisfaction and old fashioned professionalism come into play. Do you know what a sincere apology and at least a half refund would have done?? It wouldn't have gotten him this lousy review. There are a few simple things a motel guest expects and has the right to expect: A decent room (clean straight carpets, no bugs, clean smelling sheets, clean smelling towels, a working tv and a good mattress), a clean pool, helpful honest desk help, an apology when the charge is incorrect, and enough breakfast at the counter to keep the customer from being offended, and most important... When a motel concentrates on the best interests of it's guests, you cannot put a price tag on that. That motel becomes the  cream of the crop and it is a joy for the customer to stay. That is not the desire of this motel. The customer seems to be a bother to them. It's as if they have forgotten who is providing their paycheck.When a bad situation is preventable that is a terrible thing. But when a preventable situation isn't amended, corrected or even compensated for, then there should be impacting repercussions. Please don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r35308807-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>35308807</t>
+  </si>
+  <si>
+    <t>07/20/2009</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>2 night stay.. had I been able to change hotels without losing the cost of a night I would have. it was gross, run down.. maid cleaned our room and took our towels and didn't replace them... (and they were HUNG up, not a wad on the floor).. and to top off our miserable weekend.. we had an elephant upstairs and some person burned his toast at 6am on sunday, fire alarmed the whole ferking hotel.  took 2 phone calls and over an hour to get towels and then he only brought me 3 towels (um hello, we have 4 people in the room, and oh yeah, washcloths would be good). The carpet was so worn it was loose and I tripped. (not such a biggie, I am clutzy) but really that is a safety issue. aarrgghhh! I sent in a complaint today and I asked for at least a partial refund. The staff didn't even offer an explanation or apology for our 6 am wake up call. grrr! The bed was very uncomfortable.   I could have really used the extra 3 hours of sleep I could have gotten (or tried). 
+oh and the pool... it was creeptacular.. in the basement, super tiny .. it creeped me out, it was like a horror movie waiting to happen .. mom and kids alone in pool in basement...etc, etc. (cue the dark music).. I am so relieved when my husband made it...2 night stay.. had I been able to change hotels without losing the cost of a night I would have. it was gross, run down.. maid cleaned our room and took our towels and didn't replace them... (and they were HUNG up, not a wad on the floor).. and to top off our miserable weekend.. we had an elephant upstairs and some person burned his toast at 6am on sunday, fire alarmed the whole ferking hotel.  took 2 phone calls and over an hour to get towels and then he only brought me 3 towels (um hello, we have 4 people in the room, and oh yeah, washcloths would be good). The carpet was so worn it was loose and I tripped. (not such a biggie, I am clutzy) but really that is a safety issue. aarrgghhh! I sent in a complaint today and I asked for at least a partial refund. The staff didn't even offer an explanation or apology for our 6 am wake up call. grrr! The bed was very uncomfortable.   I could have really used the extra 3 hours of sleep I could have gotten (or tried). oh and the pool... it was creeptacular.. in the basement, super tiny .. it creeped me out, it was like a horror movie waiting to happen .. mom and kids alone in pool in basement...etc, etc. (cue the dark music).. I am so relieved when my husband made it down  If this hotel was refurbed in 2007, they have really gone downhill or used inferior products. The bathroom sink was full of cracks, carpet worn and loose.Breakfast was picked over by 9 am and not replenished, the trash bins in the area overflowing so we couldn't even dispose of our trash because it would just fall on the floor. This is while an employee is sitting there watching, although she did bring out more orange juice.The sheets were clean though.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>2 night stay.. had I been able to change hotels without losing the cost of a night I would have. it was gross, run down.. maid cleaned our room and took our towels and didn't replace them... (and they were HUNG up, not a wad on the floor).. and to top off our miserable weekend.. we had an elephant upstairs and some person burned his toast at 6am on sunday, fire alarmed the whole ferking hotel.  took 2 phone calls and over an hour to get towels and then he only brought me 3 towels (um hello, we have 4 people in the room, and oh yeah, washcloths would be good). The carpet was so worn it was loose and I tripped. (not such a biggie, I am clutzy) but really that is a safety issue. aarrgghhh! I sent in a complaint today and I asked for at least a partial refund. The staff didn't even offer an explanation or apology for our 6 am wake up call. grrr! The bed was very uncomfortable.   I could have really used the extra 3 hours of sleep I could have gotten (or tried). 
+oh and the pool... it was creeptacular.. in the basement, super tiny .. it creeped me out, it was like a horror movie waiting to happen .. mom and kids alone in pool in basement...etc, etc. (cue the dark music).. I am so relieved when my husband made it...2 night stay.. had I been able to change hotels without losing the cost of a night I would have. it was gross, run down.. maid cleaned our room and took our towels and didn't replace them... (and they were HUNG up, not a wad on the floor).. and to top off our miserable weekend.. we had an elephant upstairs and some person burned his toast at 6am on sunday, fire alarmed the whole ferking hotel.  took 2 phone calls and over an hour to get towels and then he only brought me 3 towels (um hello, we have 4 people in the room, and oh yeah, washcloths would be good). The carpet was so worn it was loose and I tripped. (not such a biggie, I am clutzy) but really that is a safety issue. aarrgghhh! I sent in a complaint today and I asked for at least a partial refund. The staff didn't even offer an explanation or apology for our 6 am wake up call. grrr! The bed was very uncomfortable.   I could have really used the extra 3 hours of sleep I could have gotten (or tried). oh and the pool... it was creeptacular.. in the basement, super tiny .. it creeped me out, it was like a horror movie waiting to happen .. mom and kids alone in pool in basement...etc, etc. (cue the dark music).. I am so relieved when my husband made it down  If this hotel was refurbed in 2007, they have really gone downhill or used inferior products. The bathroom sink was full of cracks, carpet worn and loose.Breakfast was picked over by 9 am and not replenished, the trash bins in the area overflowing so we couldn't even dispose of our trash because it would just fall on the floor. This is while an employee is sitting there watching, although she did bring out more orange juice.The sheets were clean though.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r17350297-Denver_North_Hotel-Thornton_Colorado.html</t>
   </si>
   <si>
@@ -1183,6 +1834,45 @@
   </si>
   <si>
     <t>This hotel, had small clean rooms, but the biggest downside is the very small bathroom with the sliding door, but the rooms were clean. After we left here we went to Molly Browns house in Denver, this was OK. We then headed to Durango, CO.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r8271802-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>8271802</t>
+  </si>
+  <si>
+    <t>07/31/2007</t>
+  </si>
+  <si>
+    <t>Reasonable Motel</t>
+  </si>
+  <si>
+    <t>We spent our first 2 nights at the Sleep Inn, Thornton arriving from London on a 3 week vacation touring the various states in this area. We were tired on arrival but everything was as expected and the reception was very helpful.The room was comfortable with all the normal amenities. Breakfast the next morning was good, but the motel was undergoing some refurbishment and all the floors on the ground floor were full of builders materials which you had to work your way around, but this didn't cause much of a problem. We tried to book our last 2 nights on our return to the Denver area but all the hotels in this area where fully booked.If we travel back to this area we would have no problem in using this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2006</t>
+  </si>
+  <si>
+    <t>We spent our first 2 nights at the Sleep Inn, Thornton arriving from London on a 3 week vacation touring the various states in this area. We were tired on arrival but everything was as expected and the reception was very helpful.The room was comfortable with all the normal amenities. Breakfast the next morning was good, but the motel was undergoing some refurbishment and all the floors on the ground floor were full of builders materials which you had to work your way around, but this didn't cause much of a problem. We tried to book our last 2 nights on our return to the Denver area but all the hotels in this area where fully booked.If we travel back to this area we would have no problem in using this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33668-d120023-r5703207-Denver_North_Hotel-Thornton_Colorado.html</t>
+  </si>
+  <si>
+    <t>5703207</t>
+  </si>
+  <si>
+    <t>08/23/2006</t>
+  </si>
+  <si>
+    <t>Nice value</t>
+  </si>
+  <si>
+    <t>Very suprised by how nice the continental breakfast was, had everything that I needed or wanted. The staff went over and above helping my with my requests. I was also happy with how clean the rooms were.</t>
+  </si>
+  <si>
+    <t>July 2006</t>
   </si>
 </sst>
 </file>
@@ -1717,7 +2407,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1726,15 +2416,11 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1782,23 +2468,23 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1810,7 +2496,7 @@
         <v>54</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -1826,41 +2512,45 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
         <v>68</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>61</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1871,7 +2561,7 @@
         <v>54</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1887,44 +2577,56 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1940,7 +2642,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1949,43 +2651,43 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>81</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>53</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
       <c r="Y6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2001,7 +2703,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2010,35 +2712,47 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>53</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -2054,7 +2768,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2063,33 +2777,29 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>4</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
@@ -2101,7 +2811,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -2117,7 +2827,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2126,45 +2836,35 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
-        <v>80</v>
-      </c>
-      <c r="O9" t="s">
-        <v>62</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
@@ -2180,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2189,39 +2889,43 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
         <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
-      </c>
-      <c r="P10" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2237,7 +2941,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2246,26 +2950,22 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
-      <c r="O11" t="s">
-        <v>62</v>
-      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
@@ -2278,7 +2978,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -2294,7 +2994,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2303,25 +3003,25 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2335,7 +3035,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13">
@@ -2351,7 +3051,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2360,45 +3060,39 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>1</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
@@ -2414,7 +3108,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2423,37 +3117,37 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="P14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2461,7 +3155,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
@@ -2477,48 +3171,54 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
         <v>129</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
@@ -2534,7 +3234,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2543,45 +3243,39 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
@@ -2597,7 +3291,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2606,25 +3300,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2638,7 +3332,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
@@ -2654,7 +3348,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2663,35 +3357,35 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2699,7 +3393,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2715,7 +3409,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2724,43 +3418,39 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K19" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O19" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20">
@@ -2776,7 +3466,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2785,25 +3475,25 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="O20" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2817,7 +3507,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -2833,7 +3523,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2842,34 +3532,34 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
-      </c>
-      <c r="P21" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="n">
-        <v>4</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>1</v>
@@ -2880,7 +3570,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -2896,7 +3586,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2905,25 +3595,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2937,7 +3627,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -2953,7 +3643,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2962,49 +3652,39 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>93</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>182</v>
-      </c>
-      <c r="X23" t="s">
-        <v>183</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="24">
@@ -3020,58 +3700,54 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
         <v>185</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>186</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>187</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>188</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
         <v>189</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>181</v>
-      </c>
       <c r="O24" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
-        <v>190</v>
-      </c>
-      <c r="X24" t="s">
-        <v>183</v>
-      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
@@ -3087,56 +3763,48 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>190</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
         <v>192</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>193</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>194</v>
       </c>
-      <c r="K25" t="s">
-        <v>195</v>
-      </c>
-      <c r="L25" t="s">
-        <v>196</v>
-      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>1</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>198</v>
-      </c>
-      <c r="X25" t="s">
-        <v>199</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
@@ -3152,7 +3820,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -3161,41 +3829,37 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O26" t="s">
-        <v>69</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>3</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
         <v>3</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3203,7 +3867,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27">
@@ -3219,7 +3883,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3228,49 +3892,39 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O27" t="s">
-        <v>81</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -3286,7 +3940,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3295,41 +3949,37 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3337,7 +3987,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -3353,7 +4003,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3362,49 +4012,39 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>62</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R29" t="n">
-        <v>4</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
@@ -3420,7 +4060,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3429,35 +4069,29 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
       <c r="S30" t="n">
         <v>3</v>
       </c>
@@ -3471,7 +4105,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31">
@@ -3487,7 +4121,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3496,41 +4130,35 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3538,7 +4166,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
@@ -3554,7 +4182,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3563,38 +4191,32 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>1</v>
@@ -3605,7 +4227,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
@@ -3621,7 +4243,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3630,30 +4252,34 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K33" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L33" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>1</v>
@@ -3664,7 +4290,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -3680,7 +4306,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3689,49 +4315,39 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="J34" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L34" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O34" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
@@ -3747,7 +4363,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3756,37 +4372,33 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="J35" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K35" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L35" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="O35" t="s">
-        <v>62</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
@@ -3798,7 +4410,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36">
@@ -3814,7 +4426,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3823,25 +4435,25 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="J36" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K36" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L36" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="O36" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3855,7 +4467,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37">
@@ -3871,7 +4483,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3880,34 +4492,34 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="K37" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
-      <c r="P37" t="n">
-        <v>2</v>
-      </c>
+      <c r="N37" t="s">
+        <v>267</v>
+      </c>
+      <c r="O37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
         <v>2</v>
       </c>
       <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>3</v>
@@ -3918,7 +4530,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38">
@@ -3934,7 +4546,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3943,38 +4555,32 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="J38" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="K38" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="L38" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>273</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
         <v>5</v>
       </c>
-      <c r="N38" t="s">
-        <v>282</v>
-      </c>
-      <c r="O38" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
         <v>5</v>
@@ -3982,10 +4588,14 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>274</v>
+      </c>
+      <c r="X38" t="s">
+        <v>275</v>
+      </c>
       <c r="Y38" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
@@ -4001,7 +4611,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4010,39 +4620,49 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K39" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L39" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O39" t="s">
-        <v>62</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s"/>
-      <c r="X39" t="s"/>
+      <c r="W39" t="s">
+        <v>283</v>
+      </c>
+      <c r="X39" t="s">
+        <v>284</v>
+      </c>
       <c r="Y39" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40">
@@ -4058,58 +4678,58 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>286</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>287</v>
+      </c>
+      <c r="J40" t="s">
+        <v>288</v>
+      </c>
+      <c r="K40" t="s">
+        <v>289</v>
+      </c>
+      <c r="L40" t="s">
         <v>290</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
-        <v>291</v>
-      </c>
-      <c r="J40" t="s">
-        <v>292</v>
-      </c>
-      <c r="K40" t="s">
-        <v>293</v>
-      </c>
-      <c r="L40" t="s">
-        <v>294</v>
-      </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
         <v>5</v>
       </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s"/>
-      <c r="X40" t="s"/>
+      <c r="W40" t="s">
+        <v>291</v>
+      </c>
+      <c r="X40" t="s">
+        <v>284</v>
+      </c>
       <c r="Y40" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41">
@@ -4125,56 +4745,54 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
         <v>297</v>
       </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
-      <c r="H41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
         <v>298</v>
       </c>
-      <c r="J41" t="s">
-        <v>299</v>
-      </c>
-      <c r="K41" t="s">
-        <v>300</v>
-      </c>
-      <c r="L41" t="s">
-        <v>301</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="s">
-        <v>302</v>
-      </c>
       <c r="O41" t="s">
-        <v>93</v>
-      </c>
-      <c r="P41" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>299</v>
+      </c>
+      <c r="X41" t="s">
+        <v>300</v>
+      </c>
       <c r="Y41" t="s">
         <v>301</v>
       </c>
@@ -4192,44 +4810,50 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
+        <v>302</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
         <v>303</v>
       </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
-      <c r="H42" t="s">
-        <v>46</v>
-      </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>304</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>305</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>306</v>
       </c>
-      <c r="L42" t="s">
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>307</v>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="s">
-        <v>295</v>
-      </c>
       <c r="O42" t="s">
-        <v>62</v>
-      </c>
-      <c r="P42" t="s"/>
-      <c r="Q42" t="s"/>
-      <c r="R42" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
       <c r="S42" t="n">
         <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -4237,7 +4861,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43">
@@ -4277,22 +4901,26 @@
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P43" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4300,7 +4928,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44">
@@ -4316,7 +4944,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4325,37 +4953,41 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J44" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K44" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L44" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="O44" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" t="s"/>
-      <c r="R44" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4363,7 +4995,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45">
@@ -4379,7 +5011,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4388,37 +5020,41 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="O45" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
       </c>
-      <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4426,7 +5062,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46">
@@ -4442,7 +5078,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4451,37 +5087,41 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="O46" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4489,7 +5129,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -4505,7 +5145,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4514,41 +5154,41 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
+        <v>338</v>
+      </c>
+      <c r="L47" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
         <v>333</v>
       </c>
-      <c r="L47" t="s">
-        <v>334</v>
-      </c>
-      <c r="M47" t="n">
-        <v>4</v>
-      </c>
-      <c r="N47" t="s">
-        <v>335</v>
-      </c>
       <c r="O47" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4556,7 +5196,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48">
@@ -4572,7 +5212,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4581,39 +5221,37 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="s">
-        <v>341</v>
-      </c>
-      <c r="O48" t="s">
-        <v>81</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
       <c r="P48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
-      </c>
-      <c r="R48" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4621,7 +5259,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="49">
@@ -4637,7 +5275,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4646,41 +5284,41 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O49" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4688,7 +5326,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50">
@@ -4704,7 +5342,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4713,41 +5351,41 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="J50" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K50" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L50" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4755,7 +5393,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51">
@@ -4771,7 +5409,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4780,41 +5418,41 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="J51" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K51" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L51" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="M51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -4822,7 +5460,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
@@ -4838,7 +5476,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4847,39 +5485,49 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J52" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s">
+        <v>371</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>366</v>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>367</v>
-      </c>
       <c r="O52" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
-      <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53">
@@ -4895,7 +5543,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -4904,31 +5552,31 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J53" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="K53" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O53" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R53" t="n">
         <v>5</v>
@@ -4938,7 +5586,7 @@
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
@@ -4946,7 +5594,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="54">
@@ -4962,7 +5610,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -4971,41 +5619,41 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="J54" t="s">
+        <v>380</v>
+      </c>
+      <c r="K54" t="s">
+        <v>381</v>
+      </c>
+      <c r="L54" t="s">
+        <v>382</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>377</v>
       </c>
-      <c r="K54" t="s">
-        <v>378</v>
-      </c>
-      <c r="L54" t="s">
-        <v>379</v>
-      </c>
-      <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s">
-        <v>380</v>
-      </c>
       <c r="O54" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5013,7 +5661,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="55">
@@ -5029,7 +5677,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5038,37 +5686,33 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="J55" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K55" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L55" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
-      </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
-      <c r="R55" t="n">
-        <v>3</v>
-      </c>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>377</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
@@ -5076,7 +5720,2469 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>386</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>390</v>
+      </c>
+      <c r="J56" t="s">
+        <v>391</v>
+      </c>
+      <c r="K56" t="s">
+        <v>392</v>
+      </c>
+      <c r="L56" t="s">
+        <v>393</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>377</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>396</v>
+      </c>
+      <c r="J57" t="s">
+        <v>391</v>
+      </c>
+      <c r="K57" t="s">
+        <v>370</v>
+      </c>
+      <c r="L57" t="s">
+        <v>397</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>398</v>
+      </c>
+      <c r="O57" t="s">
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>399</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>400</v>
+      </c>
+      <c r="J58" t="s">
+        <v>401</v>
+      </c>
+      <c r="K58" t="s">
+        <v>402</v>
+      </c>
+      <c r="L58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>398</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>404</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>405</v>
+      </c>
+      <c r="J59" t="s">
+        <v>406</v>
+      </c>
+      <c r="K59" t="s">
+        <v>407</v>
+      </c>
+      <c r="L59" t="s">
+        <v>408</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>398</v>
+      </c>
+      <c r="O59" t="s">
+        <v>76</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>398</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" t="s">
+        <v>420</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>422</v>
+      </c>
+      <c r="J62" t="s">
+        <v>423</v>
+      </c>
+      <c r="K62" t="s">
+        <v>424</v>
+      </c>
+      <c r="L62" t="s">
+        <v>425</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>426</v>
+      </c>
+      <c r="O62" t="s">
+        <v>83</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>427</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>428</v>
+      </c>
+      <c r="J63" t="s">
+        <v>429</v>
+      </c>
+      <c r="K63" t="s">
+        <v>430</v>
+      </c>
+      <c r="L63" t="s">
+        <v>431</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>426</v>
+      </c>
+      <c r="O63" t="s">
+        <v>76</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>432</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>433</v>
+      </c>
+      <c r="J64" t="s">
+        <v>434</v>
+      </c>
+      <c r="K64" t="s">
+        <v>435</v>
+      </c>
+      <c r="L64" t="s">
+        <v>436</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>426</v>
+      </c>
+      <c r="O64" t="s">
+        <v>83</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>437</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>438</v>
+      </c>
+      <c r="J65" t="s">
+        <v>439</v>
+      </c>
+      <c r="K65" t="s">
+        <v>440</v>
+      </c>
+      <c r="L65" t="s">
+        <v>441</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s">
+        <v>442</v>
+      </c>
+      <c r="O65" t="s">
+        <v>76</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>444</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" t="s">
+        <v>446</v>
+      </c>
+      <c r="K66" t="s">
+        <v>447</v>
+      </c>
+      <c r="L66" t="s">
+        <v>448</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>449</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>451</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>452</v>
+      </c>
+      <c r="J67" t="s">
+        <v>453</v>
+      </c>
+      <c r="K67" t="s">
+        <v>454</v>
+      </c>
+      <c r="L67" t="s">
+        <v>455</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>456</v>
+      </c>
+      <c r="O67" t="s">
+        <v>125</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>457</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>458</v>
+      </c>
+      <c r="J68" t="s">
+        <v>459</v>
+      </c>
+      <c r="K68" t="s">
+        <v>460</v>
+      </c>
+      <c r="L68" t="s">
+        <v>461</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>462</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>2</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>464</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>465</v>
+      </c>
+      <c r="J69" t="s">
+        <v>466</v>
+      </c>
+      <c r="K69" t="s">
+        <v>467</v>
+      </c>
+      <c r="L69" t="s">
+        <v>468</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>462</v>
+      </c>
+      <c r="O69" t="s">
+        <v>125</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>469</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>470</v>
+      </c>
+      <c r="J70" t="s">
+        <v>471</v>
+      </c>
+      <c r="K70" t="s">
+        <v>472</v>
+      </c>
+      <c r="L70" t="s">
+        <v>473</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>449</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>474</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>475</v>
+      </c>
+      <c r="J71" t="s">
+        <v>476</v>
+      </c>
+      <c r="K71" t="s">
+        <v>477</v>
+      </c>
+      <c r="L71" t="s">
+        <v>478</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
+        <v>462</v>
+      </c>
+      <c r="O71" t="s">
+        <v>52</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>480</v>
+      </c>
+      <c r="J72" t="s">
+        <v>481</v>
+      </c>
+      <c r="K72" t="s">
+        <v>482</v>
+      </c>
+      <c r="L72" t="s">
+        <v>483</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>484</v>
+      </c>
+      <c r="O72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>486</v>
+      </c>
+      <c r="J73" t="s">
+        <v>487</v>
+      </c>
+      <c r="K73" t="s">
+        <v>488</v>
+      </c>
+      <c r="L73" t="s">
+        <v>489</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
+        <v>462</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>491</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>492</v>
+      </c>
+      <c r="J74" t="s">
+        <v>493</v>
+      </c>
+      <c r="K74" t="s">
+        <v>494</v>
+      </c>
+      <c r="L74" t="s">
+        <v>495</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>462</v>
+      </c>
+      <c r="O74" t="s">
+        <v>125</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>497</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>498</v>
+      </c>
+      <c r="J75" t="s">
+        <v>499</v>
+      </c>
+      <c r="K75" t="s">
+        <v>500</v>
+      </c>
+      <c r="L75" t="s">
+        <v>501</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>484</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>502</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>503</v>
+      </c>
+      <c r="J76" t="s">
+        <v>504</v>
+      </c>
+      <c r="K76" t="s">
+        <v>505</v>
+      </c>
+      <c r="L76" t="s">
+        <v>506</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s">
+        <v>484</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>507</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>508</v>
+      </c>
+      <c r="J77" t="s">
+        <v>509</v>
+      </c>
+      <c r="K77" t="s">
+        <v>510</v>
+      </c>
+      <c r="L77" t="s">
+        <v>511</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>512</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>513</v>
+      </c>
+      <c r="J78" t="s">
+        <v>514</v>
+      </c>
+      <c r="K78" t="s">
+        <v>515</v>
+      </c>
+      <c r="L78" t="s">
+        <v>516</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>517</v>
+      </c>
+      <c r="O78" t="s">
+        <v>125</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>518</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>519</v>
+      </c>
+      <c r="J79" t="s">
+        <v>520</v>
+      </c>
+      <c r="K79" t="s">
+        <v>521</v>
+      </c>
+      <c r="L79" t="s">
+        <v>522</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>517</v>
+      </c>
+      <c r="O79" t="s">
+        <v>125</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>523</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>524</v>
+      </c>
+      <c r="J80" t="s">
+        <v>525</v>
+      </c>
+      <c r="K80" t="s">
+        <v>526</v>
+      </c>
+      <c r="L80" t="s">
+        <v>527</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>528</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>531</v>
+      </c>
+      <c r="J81" t="s">
+        <v>532</v>
+      </c>
+      <c r="K81" t="s">
+        <v>533</v>
+      </c>
+      <c r="L81" t="s">
+        <v>534</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>535</v>
+      </c>
+      <c r="O81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>537</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>538</v>
+      </c>
+      <c r="J82" t="s">
+        <v>539</v>
+      </c>
+      <c r="K82" t="s">
+        <v>540</v>
+      </c>
+      <c r="L82" t="s">
+        <v>541</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="s">
+        <v>542</v>
+      </c>
+      <c r="O82" t="s">
+        <v>125</v>
+      </c>
+      <c r="P82" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>545</v>
+      </c>
+      <c r="J83" t="s">
+        <v>546</v>
+      </c>
+      <c r="K83" t="s">
+        <v>547</v>
+      </c>
+      <c r="L83" t="s">
+        <v>548</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>549</v>
+      </c>
+      <c r="O83" t="s">
+        <v>125</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>551</v>
+      </c>
+      <c r="J84" t="s">
+        <v>552</v>
+      </c>
+      <c r="K84" t="s">
+        <v>553</v>
+      </c>
+      <c r="L84" t="s">
+        <v>554</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>549</v>
+      </c>
+      <c r="O84" t="s">
+        <v>76</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>555</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>556</v>
+      </c>
+      <c r="J85" t="s">
+        <v>557</v>
+      </c>
+      <c r="K85" t="s">
+        <v>558</v>
+      </c>
+      <c r="L85" t="s">
+        <v>559</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>560</v>
+      </c>
+      <c r="O85" t="s">
+        <v>68</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>561</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>562</v>
+      </c>
+      <c r="J86" t="s">
+        <v>563</v>
+      </c>
+      <c r="K86" t="s">
+        <v>564</v>
+      </c>
+      <c r="L86" t="s">
+        <v>565</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>566</v>
+      </c>
+      <c r="O86" t="s">
+        <v>76</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>569</v>
+      </c>
+      <c r="J87" t="s">
+        <v>570</v>
+      </c>
+      <c r="K87" t="s">
+        <v>571</v>
+      </c>
+      <c r="L87" t="s">
+        <v>572</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>573</v>
+      </c>
+      <c r="O87" t="s">
+        <v>125</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>575</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>576</v>
+      </c>
+      <c r="J88" t="s">
+        <v>577</v>
+      </c>
+      <c r="K88" t="s">
+        <v>578</v>
+      </c>
+      <c r="L88" t="s">
+        <v>579</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>580</v>
+      </c>
+      <c r="O88" t="s">
+        <v>76</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>582</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>583</v>
+      </c>
+      <c r="J89" t="s">
+        <v>584</v>
+      </c>
+      <c r="K89" t="s">
+        <v>585</v>
+      </c>
+      <c r="L89" t="s">
+        <v>586</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>587</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>589</v>
+      </c>
+      <c r="J90" t="s">
+        <v>590</v>
+      </c>
+      <c r="K90" t="s">
+        <v>591</v>
+      </c>
+      <c r="L90" t="s">
+        <v>592</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>593</v>
+      </c>
+      <c r="O90" t="s">
+        <v>125</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>595</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>596</v>
+      </c>
+      <c r="J91" t="s">
+        <v>597</v>
+      </c>
+      <c r="K91" t="s">
+        <v>598</v>
+      </c>
+      <c r="L91" t="s">
+        <v>599</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>600</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>601</v>
+      </c>
+      <c r="J92" t="s">
+        <v>602</v>
+      </c>
+      <c r="K92" t="s">
+        <v>603</v>
+      </c>
+      <c r="L92" t="s">
+        <v>604</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>605</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>37510</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>607</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>608</v>
+      </c>
+      <c r="J93" t="s">
+        <v>609</v>
+      </c>
+      <c r="K93" t="s">
+        <v>610</v>
+      </c>
+      <c r="L93" t="s">
+        <v>611</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>612</v>
+      </c>
+      <c r="O93" t="s">
+        <v>125</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
